--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2855788.700686697</v>
+        <v>2855070.049247415</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2654856.114805179</v>
+        <v>2654856.114805184</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7982547.357650891</v>
+        <v>7982547.357650892</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>8.816525072005941</v>
       </c>
       <c r="X2" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="V3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T3" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -914,43 +914,43 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,73 +1051,73 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="U7" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="X7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.5193474360557</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1184,7 +1184,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.94294668035388</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>10.5193474360557</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="V10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>274.9529621481728</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>265.9342661927008</v>
       </c>
       <c r="E11" t="n">
-        <v>287.6764037626064</v>
+        <v>38.86654169663561</v>
       </c>
       <c r="F11" t="n">
         <v>306.8482198505835</v>
       </c>
       <c r="G11" t="n">
-        <v>308.275355453543</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.41490258865653</v>
+        <v>48.41490258865652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.66173702352449</v>
+        <v>70.66173702352448</v>
       </c>
       <c r="T11" t="n">
         <v>116.738303754939</v>
@@ -1430,10 +1430,10 @@
         <v>230.4480224306702</v>
       </c>
       <c r="W11" t="n">
-        <v>239.6455507231871</v>
+        <v>255.7481219086271</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>275.0483801413737</v>
       </c>
       <c r="Y11" t="n">
         <v>286.4449779375725</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.55835606518819</v>
+        <v>78.55835606518818</v>
       </c>
       <c r="C13" t="n">
-        <v>64.75835091058867</v>
+        <v>64.75835091058866</v>
       </c>
       <c r="D13" t="n">
-        <v>48.37971530816706</v>
+        <v>48.37971530816705</v>
       </c>
       <c r="E13" t="n">
-        <v>47.32746516394651</v>
+        <v>47.3274651639465</v>
       </c>
       <c r="F13" t="n">
-        <v>47.79438949213282</v>
+        <v>47.79438949213281</v>
       </c>
       <c r="G13" t="n">
-        <v>63.84205869041106</v>
+        <v>63.84205869041104</v>
       </c>
       <c r="H13" t="n">
-        <v>52.59892542197043</v>
+        <v>52.59892542197041</v>
       </c>
       <c r="I13" t="n">
-        <v>32.77203779996181</v>
+        <v>32.77203779996179</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65685186576085</v>
+        <v>34.65685186576083</v>
       </c>
       <c r="S13" t="n">
         <v>104.4546309132339</v>
       </c>
       <c r="T13" t="n">
-        <v>126.7156523942873</v>
+        <v>126.7156523942872</v>
       </c>
       <c r="U13" t="n">
         <v>181.1444945367304</v>
@@ -1591,7 +1591,7 @@
         <v>180.133378535427</v>
       </c>
       <c r="X13" t="n">
-        <v>125.7784805312302</v>
+        <v>125.7784805312301</v>
       </c>
       <c r="Y13" t="n">
         <v>116.6533482872978</v>
@@ -1607,25 +1607,25 @@
         <v>286.9416451904911</v>
       </c>
       <c r="C14" t="n">
-        <v>274.9529621481728</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>265.9342661927008</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>287.6764037626064</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>306.8482198505835</v>
       </c>
       <c r="G14" t="n">
-        <v>124.5665861815725</v>
+        <v>308.2753554535429</v>
       </c>
       <c r="H14" t="n">
         <v>221.148175365646</v>
       </c>
       <c r="I14" t="n">
-        <v>48.41490258865652</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>255.7481219086271</v>
       </c>
       <c r="X14" t="n">
-        <v>275.0483801413737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.4449779375725</v>
+        <v>106.6278299306169</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.37278301643491</v>
+        <v>42.3727830164349</v>
       </c>
       <c r="S15" t="n">
         <v>146.2414144859818</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65685186576086</v>
+        <v>34.65685186576083</v>
       </c>
       <c r="S16" t="n">
         <v>104.4546309132339</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.8117530264551</v>
+        <v>234.8117530264552</v>
       </c>
       <c r="C17" t="n">
-        <v>222.8230699841368</v>
+        <v>222.823069984137</v>
       </c>
       <c r="D17" t="n">
-        <v>213.8043740286648</v>
+        <v>213.804374028665</v>
       </c>
       <c r="E17" t="n">
-        <v>235.5465115985703</v>
+        <v>235.5465115985705</v>
       </c>
       <c r="F17" t="n">
-        <v>254.7183276865475</v>
+        <v>254.7183276865477</v>
       </c>
       <c r="G17" t="n">
-        <v>256.145463289507</v>
+        <v>256.1454632895071</v>
       </c>
       <c r="H17" t="n">
-        <v>169.01828320161</v>
+        <v>169.0182832016102</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.53184485948844</v>
+        <v>18.53184485948861</v>
       </c>
       <c r="T17" t="n">
-        <v>64.60841159090296</v>
+        <v>64.60841159090315</v>
       </c>
       <c r="U17" t="n">
-        <v>97.00464124320499</v>
+        <v>97.00464124320516</v>
       </c>
       <c r="V17" t="n">
-        <v>178.3181302666342</v>
+        <v>178.3181302666344</v>
       </c>
       <c r="W17" t="n">
-        <v>203.6182297445911</v>
+        <v>203.6182297445913</v>
       </c>
       <c r="X17" t="n">
-        <v>222.9184879773377</v>
+        <v>222.9184879773379</v>
       </c>
       <c r="Y17" t="n">
-        <v>234.3150857735365</v>
+        <v>234.3150857735356</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I18" t="n">
-        <v>58.37470580830791</v>
+        <v>58.3747058083079</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.37278301643491</v>
+        <v>42.37278301643489</v>
       </c>
       <c r="S18" t="n">
         <v>146.2414144859818</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.42846390115216</v>
+        <v>26.42846390115233</v>
       </c>
       <c r="C19" t="n">
-        <v>12.62845874655264</v>
+        <v>12.62845874655281</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.71216652637502</v>
+        <v>11.71216652637519</v>
       </c>
       <c r="H19" t="n">
-        <v>37.26166849405457</v>
+        <v>0.4690332579345551</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.32473874919791</v>
+        <v>89.11737398531645</v>
       </c>
       <c r="T19" t="n">
-        <v>74.58576023025122</v>
+        <v>74.5857602302514</v>
       </c>
       <c r="U19" t="n">
-        <v>129.0146023726944</v>
+        <v>129.0146023726945</v>
       </c>
       <c r="V19" t="n">
-        <v>102.8366003007777</v>
+        <v>102.8366003007779</v>
       </c>
       <c r="W19" t="n">
-        <v>128.003486371391</v>
+        <v>128.0034863713912</v>
       </c>
       <c r="X19" t="n">
-        <v>73.64858836719412</v>
+        <v>73.64858836719429</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.52345612326181</v>
+        <v>64.52345612326198</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>234.8117530264552</v>
       </c>
       <c r="C20" t="n">
-        <v>222.8230699841369</v>
+        <v>222.823069984137</v>
       </c>
       <c r="D20" t="n">
-        <v>213.8043740286649</v>
+        <v>213.804374028665</v>
       </c>
       <c r="E20" t="n">
-        <v>235.5465115985704</v>
+        <v>235.5465115985705</v>
       </c>
       <c r="F20" t="n">
-        <v>254.7183276865476</v>
+        <v>254.7183276865477</v>
       </c>
       <c r="G20" t="n">
         <v>256.1454632895071</v>
       </c>
       <c r="H20" t="n">
-        <v>169.0182832016101</v>
+        <v>169.0182832016102</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.53184485948853</v>
+        <v>18.53184485948861</v>
       </c>
       <c r="T20" t="n">
-        <v>64.60841159090305</v>
+        <v>64.60841159090315</v>
       </c>
       <c r="U20" t="n">
-        <v>97.00464124320507</v>
+        <v>97.00464124320516</v>
       </c>
       <c r="V20" t="n">
-        <v>178.3181302666343</v>
+        <v>178.3181302666344</v>
       </c>
       <c r="W20" t="n">
-        <v>203.6182297445912</v>
+        <v>203.6182297445913</v>
       </c>
       <c r="X20" t="n">
-        <v>222.9184879773378</v>
+        <v>222.9184879773379</v>
       </c>
       <c r="Y20" t="n">
-        <v>234.3150857735366</v>
+        <v>234.3150857735367</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I21" t="n">
-        <v>58.37470580830791</v>
+        <v>58.3747058083079</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.37278301643491</v>
+        <v>42.37278301643489</v>
       </c>
       <c r="S21" t="n">
         <v>146.2414144859818</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.42846390115224</v>
+        <v>26.42846390115233</v>
       </c>
       <c r="C22" t="n">
-        <v>12.62845874655272</v>
+        <v>12.62845874655281</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.7121665263751</v>
+        <v>11.71216652637519</v>
       </c>
       <c r="H22" t="n">
-        <v>37.26166849405377</v>
+        <v>0.4690332579345551</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.32473874919799</v>
+        <v>89.11737398531645</v>
       </c>
       <c r="T22" t="n">
-        <v>74.58576023025131</v>
+        <v>74.5857602302514</v>
       </c>
       <c r="U22" t="n">
-        <v>129.0146023726944</v>
+        <v>129.0146023726945</v>
       </c>
       <c r="V22" t="n">
-        <v>102.8366003007778</v>
+        <v>102.8366003007779</v>
       </c>
       <c r="W22" t="n">
-        <v>128.0034863713911</v>
+        <v>128.0034863713912</v>
       </c>
       <c r="X22" t="n">
-        <v>73.64858836719421</v>
+        <v>73.64858836719429</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.52345612326189</v>
+        <v>64.52345612326198</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>254.7183276865476</v>
       </c>
       <c r="G23" t="n">
-        <v>256.1454632895071</v>
+        <v>256.145463289507</v>
       </c>
       <c r="H23" t="n">
         <v>169.0182832016101</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.53184485948854</v>
+        <v>18.53184485948853</v>
       </c>
       <c r="T23" t="n">
-        <v>64.60841159090306</v>
+        <v>64.60841159090305</v>
       </c>
       <c r="U23" t="n">
         <v>97.00464124320507</v>
@@ -2415,7 +2415,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I24" t="n">
-        <v>58.37470580830791</v>
+        <v>58.3747058083079</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.37278301643491</v>
+        <v>42.37278301643489</v>
       </c>
       <c r="S24" t="n">
         <v>146.2414144859818</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>17.65162894867242</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>11.7121665263751</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4690332579344716</v>
+        <v>0.4690332579344698</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.14100628744679</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.32473874919799</v>
+        <v>52.32473874919798</v>
       </c>
       <c r="T25" t="n">
         <v>74.58576023025131</v>
@@ -2536,7 +2536,7 @@
         <v>102.8366003007778</v>
       </c>
       <c r="W25" t="n">
-        <v>128.0034863713911</v>
+        <v>164.7961216075104</v>
       </c>
       <c r="X25" t="n">
         <v>73.64858836719421</v>
@@ -2567,13 +2567,13 @@
         <v>306.8482198505835</v>
       </c>
       <c r="G26" t="n">
-        <v>308.275355453543</v>
+        <v>308.2753554535429</v>
       </c>
       <c r="H26" t="n">
         <v>221.148175365646</v>
       </c>
       <c r="I26" t="n">
-        <v>48.4149025886565</v>
+        <v>48.41490258865649</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.66173702352448</v>
+        <v>70.66173702352447</v>
       </c>
       <c r="T26" t="n">
         <v>116.738303754939</v>
@@ -2649,10 +2649,10 @@
         <v>127.1704103252457</v>
       </c>
       <c r="H27" t="n">
-        <v>96.32307605837826</v>
+        <v>96.32307605837825</v>
       </c>
       <c r="I27" t="n">
-        <v>58.37470580830791</v>
+        <v>58.37470580830789</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.37278301643491</v>
+        <v>42.37278301643488</v>
       </c>
       <c r="S27" t="n">
         <v>146.2414144859818</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.55835606518818</v>
+        <v>78.55835606518819</v>
       </c>
       <c r="C28" t="n">
-        <v>64.75835091058866</v>
+        <v>64.75835091058867</v>
       </c>
       <c r="D28" t="n">
-        <v>48.37971530816705</v>
+        <v>48.37971530816706</v>
       </c>
       <c r="E28" t="n">
-        <v>47.3274651639465</v>
+        <v>47.32746516394651</v>
       </c>
       <c r="F28" t="n">
-        <v>47.79438949213281</v>
+        <v>47.79438949213282</v>
       </c>
       <c r="G28" t="n">
-        <v>63.84205869041105</v>
+        <v>63.84205869041106</v>
       </c>
       <c r="H28" t="n">
-        <v>52.59892542197041</v>
+        <v>52.59892542197042</v>
       </c>
       <c r="I28" t="n">
         <v>32.77203779996179</v>
@@ -2764,7 +2764,7 @@
         <v>104.4546309132339</v>
       </c>
       <c r="T28" t="n">
-        <v>126.7156523942872</v>
+        <v>126.7156523942873</v>
       </c>
       <c r="U28" t="n">
         <v>181.1444945367304</v>
@@ -2776,7 +2776,7 @@
         <v>180.133378535427</v>
       </c>
       <c r="X28" t="n">
-        <v>125.7784805312301</v>
+        <v>125.7784805312302</v>
       </c>
       <c r="Y28" t="n">
         <v>116.6533482872978</v>
@@ -2807,7 +2807,7 @@
         <v>308.2753554535429</v>
       </c>
       <c r="H29" t="n">
-        <v>221.148175365646</v>
+        <v>221.1481753656461</v>
       </c>
       <c r="I29" t="n">
         <v>48.41490258865652</v>
@@ -2965,10 +2965,10 @@
         <v>63.84205869041106</v>
       </c>
       <c r="H31" t="n">
-        <v>52.59892542197043</v>
+        <v>52.59892542197042</v>
       </c>
       <c r="I31" t="n">
-        <v>32.77203779996181</v>
+        <v>32.7720377999618</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65685186576083</v>
+        <v>34.65685186576084</v>
       </c>
       <c r="S31" t="n">
         <v>104.4546309132339</v>
@@ -3047,7 +3047,7 @@
         <v>220.6480002952249</v>
       </c>
       <c r="I32" t="n">
-        <v>47.91472751823538</v>
+        <v>47.91472751823537</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.16156195310334</v>
+        <v>70.16156195310333</v>
       </c>
       <c r="T32" t="n">
-        <v>116.2381286845179</v>
+        <v>116.2381286845178</v>
       </c>
       <c r="U32" t="n">
         <v>148.6343583368199</v>
@@ -3095,7 +3095,7 @@
         <v>274.5482050709526</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.9448028671514</v>
+        <v>285.9448028671513</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.05818099476706</v>
+        <v>78.05818099476704</v>
       </c>
       <c r="C34" t="n">
-        <v>64.25817584016754</v>
+        <v>64.25817584016752</v>
       </c>
       <c r="D34" t="n">
-        <v>47.87954023774593</v>
+        <v>47.87954023774591</v>
       </c>
       <c r="E34" t="n">
-        <v>46.82729009352538</v>
+        <v>46.82729009352536</v>
       </c>
       <c r="F34" t="n">
-        <v>47.29421442171169</v>
+        <v>47.29421442171167</v>
       </c>
       <c r="G34" t="n">
-        <v>63.34188361998992</v>
+        <v>63.34188361998991</v>
       </c>
       <c r="H34" t="n">
-        <v>52.09875035154928</v>
+        <v>52.09875035154927</v>
       </c>
       <c r="I34" t="n">
-        <v>32.27186272954066</v>
+        <v>32.27186272954065</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.15667679533971</v>
+        <v>34.15667679533969</v>
       </c>
       <c r="S34" t="n">
         <v>103.9544558428128</v>
@@ -3241,10 +3241,10 @@
         <v>126.2154773238661</v>
       </c>
       <c r="U34" t="n">
-        <v>180.6443194663093</v>
+        <v>180.6443194663092</v>
       </c>
       <c r="V34" t="n">
-        <v>154.4663173943927</v>
+        <v>154.4663173943926</v>
       </c>
       <c r="W34" t="n">
         <v>179.6332034650059</v>
@@ -3266,22 +3266,22 @@
         <v>234.8117530264552</v>
       </c>
       <c r="C35" t="n">
-        <v>222.8230699841369</v>
+        <v>222.823069984137</v>
       </c>
       <c r="D35" t="n">
-        <v>213.8043740286649</v>
+        <v>213.804374028665</v>
       </c>
       <c r="E35" t="n">
-        <v>235.5465115985704</v>
+        <v>235.5465115985705</v>
       </c>
       <c r="F35" t="n">
-        <v>254.7183276865476</v>
+        <v>254.7183276865477</v>
       </c>
       <c r="G35" t="n">
-        <v>256.145463289507</v>
+        <v>256.1454632895071</v>
       </c>
       <c r="H35" t="n">
-        <v>169.0182832016101</v>
+        <v>169.0182832016102</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.53184485948853</v>
+        <v>18.53184485948861</v>
       </c>
       <c r="T35" t="n">
-        <v>64.60841159090305</v>
+        <v>64.60841159090313</v>
       </c>
       <c r="U35" t="n">
-        <v>97.00464124320507</v>
+        <v>97.00464124320516</v>
       </c>
       <c r="V35" t="n">
-        <v>178.3181302666343</v>
+        <v>178.3181302666344</v>
       </c>
       <c r="W35" t="n">
-        <v>203.6182297445912</v>
+        <v>203.6182297445913</v>
       </c>
       <c r="X35" t="n">
-        <v>222.9184879773378</v>
+        <v>222.9184879773379</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.3150857735366</v>
+        <v>234.3150857735367</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.42846390115224</v>
+        <v>26.42846390115233</v>
       </c>
       <c r="C37" t="n">
-        <v>12.62845874655272</v>
+        <v>12.62845874655281</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>11.7121665263751</v>
+        <v>11.71216652637519</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4690332579344698</v>
+        <v>0.4690332579345551</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>52.32473874919798</v>
+        <v>52.32473874919807</v>
       </c>
       <c r="T37" t="n">
-        <v>74.58576023025131</v>
+        <v>74.5857602302514</v>
       </c>
       <c r="U37" t="n">
-        <v>129.0146023726944</v>
+        <v>129.0146023726945</v>
       </c>
       <c r="V37" t="n">
-        <v>102.8366003007778</v>
+        <v>102.8366003007779</v>
       </c>
       <c r="W37" t="n">
-        <v>128.0034863713911</v>
+        <v>128.0034863713912</v>
       </c>
       <c r="X37" t="n">
-        <v>110.4412236033135</v>
+        <v>73.64858836719429</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.52345612326189</v>
+        <v>101.3160913593804</v>
       </c>
     </row>
     <row r="38">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>19.14100628744677</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>52.32473874919798</v>
       </c>
       <c r="T40" t="n">
-        <v>74.58576023025131</v>
+        <v>92.23738917892389</v>
       </c>
       <c r="U40" t="n">
         <v>129.0146023726944</v>
@@ -3724,7 +3724,7 @@
         <v>128.0034863713911</v>
       </c>
       <c r="X40" t="n">
-        <v>110.4412236033135</v>
+        <v>73.64858836719421</v>
       </c>
       <c r="Y40" t="n">
         <v>64.52345612326189</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>267.6030870521148</v>
+        <v>267.603087052115</v>
       </c>
       <c r="C41" t="n">
-        <v>255.6144040097965</v>
+        <v>255.6144040097967</v>
       </c>
       <c r="D41" t="n">
-        <v>246.5957080543245</v>
+        <v>246.5957080543247</v>
       </c>
       <c r="E41" t="n">
-        <v>268.3378456242301</v>
+        <v>268.3378456242302</v>
       </c>
       <c r="F41" t="n">
-        <v>287.5096617122072</v>
+        <v>117.367782668138</v>
       </c>
       <c r="G41" t="n">
-        <v>108.3770207265074</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>201.8096172272697</v>
+        <v>201.8096172272699</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.32317888514834</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>97.39974561656287</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>129.7959752688649</v>
       </c>
       <c r="V41" t="n">
-        <v>211.1094642922939</v>
+        <v>211.1094642922941</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4095637702508</v>
+        <v>236.409563770251</v>
       </c>
       <c r="X41" t="n">
-        <v>255.7098220029974</v>
+        <v>255.7098220029976</v>
       </c>
       <c r="Y41" t="n">
-        <v>267.1064197991962</v>
+        <v>267.1064197991964</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.21979792681189</v>
+        <v>59.21979792681205</v>
       </c>
       <c r="C43" t="n">
-        <v>45.41979277221238</v>
+        <v>45.41979277221253</v>
       </c>
       <c r="D43" t="n">
-        <v>29.04115716979076</v>
+        <v>29.04115716979092</v>
       </c>
       <c r="E43" t="n">
-        <v>27.98890702557021</v>
+        <v>27.98890702557037</v>
       </c>
       <c r="F43" t="n">
-        <v>28.45583135375652</v>
+        <v>28.45583135375668</v>
       </c>
       <c r="G43" t="n">
-        <v>44.50350055203476</v>
+        <v>44.50350055203491</v>
       </c>
       <c r="H43" t="n">
-        <v>33.26036728359412</v>
+        <v>33.26036728359428</v>
       </c>
       <c r="I43" t="n">
-        <v>13.4334796615855</v>
+        <v>13.43347966158566</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.31829372738454</v>
+        <v>15.3182937273847</v>
       </c>
       <c r="S43" t="n">
-        <v>85.11607277485764</v>
+        <v>85.1160727748578</v>
       </c>
       <c r="T43" t="n">
-        <v>107.377094255911</v>
+        <v>107.3770942559111</v>
       </c>
       <c r="U43" t="n">
-        <v>161.8059363983541</v>
+        <v>161.8059363983542</v>
       </c>
       <c r="V43" t="n">
-        <v>135.6279343264375</v>
+        <v>135.6279343264376</v>
       </c>
       <c r="W43" t="n">
-        <v>160.7948203970507</v>
+        <v>160.7948203970509</v>
       </c>
       <c r="X43" t="n">
-        <v>106.4399223928539</v>
+        <v>106.439922392854</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.31479014892155</v>
+        <v>97.3147901489217</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>267.6030870521148</v>
+        <v>267.603087052115</v>
       </c>
       <c r="C44" t="n">
-        <v>255.6144040097965</v>
+        <v>255.6144040097967</v>
       </c>
       <c r="D44" t="n">
-        <v>246.5957080543245</v>
+        <v>246.5957080543247</v>
       </c>
       <c r="E44" t="n">
-        <v>268.3378456242301</v>
+        <v>98.19596658016039</v>
       </c>
       <c r="F44" t="n">
-        <v>287.5096617122072</v>
+        <v>287.5096617122074</v>
       </c>
       <c r="G44" t="n">
-        <v>288.9367973151666</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>201.8096172272699</v>
       </c>
       <c r="I44" t="n">
-        <v>21.24984063861092</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.32317888514832</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>97.39974561656284</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>129.7959752688649</v>
       </c>
       <c r="V44" t="n">
-        <v>211.1094642922939</v>
+        <v>211.1094642922941</v>
       </c>
       <c r="W44" t="n">
-        <v>236.4095637702508</v>
+        <v>236.409563770251</v>
       </c>
       <c r="X44" t="n">
-        <v>255.7098220029974</v>
+        <v>255.7098220029976</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.1064197991962</v>
+        <v>267.1064197991964</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.21979792681186</v>
+        <v>59.21979792681203</v>
       </c>
       <c r="C46" t="n">
-        <v>45.41979277221235</v>
+        <v>45.41979277221252</v>
       </c>
       <c r="D46" t="n">
-        <v>29.04115716979074</v>
+        <v>29.04115716979091</v>
       </c>
       <c r="E46" t="n">
-        <v>27.98890702557019</v>
+        <v>27.98890702557036</v>
       </c>
       <c r="F46" t="n">
-        <v>28.45583135375649</v>
+        <v>28.45583135375666</v>
       </c>
       <c r="G46" t="n">
-        <v>44.50350055203473</v>
+        <v>44.5035005520349</v>
       </c>
       <c r="H46" t="n">
-        <v>33.26036728359409</v>
+        <v>33.26036728359426</v>
       </c>
       <c r="I46" t="n">
-        <v>13.43347966158547</v>
+        <v>13.43347966158564</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.31829372738451</v>
+        <v>15.31829372738468</v>
       </c>
       <c r="S46" t="n">
-        <v>85.11607277485761</v>
+        <v>85.11607277485778</v>
       </c>
       <c r="T46" t="n">
-        <v>107.3770942559109</v>
+        <v>107.3770942559111</v>
       </c>
       <c r="U46" t="n">
-        <v>161.8059363983541</v>
+        <v>161.8059363983542</v>
       </c>
       <c r="V46" t="n">
-        <v>135.6279343264375</v>
+        <v>135.6279343264376</v>
       </c>
       <c r="W46" t="n">
-        <v>160.7948203970507</v>
+        <v>160.7948203970509</v>
       </c>
       <c r="X46" t="n">
-        <v>106.4399223928538</v>
+        <v>106.439922392854</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.31479014892152</v>
+        <v>97.31479014892169</v>
       </c>
     </row>
   </sheetData>
@@ -4331,43 +4331,43 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L2" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M2" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N2" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="O2" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="P2" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q2" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R2" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S2" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T2" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U2" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V2" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X2" t="n">
         <v>21.02234760148574</v>
@@ -4386,19 +4386,19 @@
         <v>10.91156095206012</v>
       </c>
       <c r="C3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H3" t="n">
         <v>0.8007743026345088</v>
@@ -4407,22 +4407,22 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L3" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M3" t="n">
         <v>20.6199382928386</v>
       </c>
       <c r="N3" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O3" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P3" t="n">
         <v>40.03871513172544</v>
@@ -4434,13 +4434,13 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S3" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T3" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U3" t="n">
-        <v>10.91156095206012</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V3" t="n">
         <v>10.91156095206012</v>
@@ -4492,40 +4492,40 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L4" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M4" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N4" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="O4" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P4" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R4" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="T4" t="n">
         <v>21.02234760148574</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
+        <v>21.02234760148574</v>
+      </c>
+      <c r="V4" t="n">
         <v>10.91156095206012</v>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>10.91156095206012</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.8007743026345088</v>
       </c>
       <c r="X4" t="n">
         <v>0.8007743026345088</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F5" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G5" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H5" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I5" t="n">
         <v>0.8007743026345088</v>
@@ -4568,49 +4568,49 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N5" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O5" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P5" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q5" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R5" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S5" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T5" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C6" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D6" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H6" t="n">
         <v>0.8007743026345088</v>
@@ -4647,19 +4647,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="L6" t="n">
-        <v>20.21955114152135</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20.21955114152135</v>
-      </c>
       <c r="N6" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="O6" t="n">
-        <v>30.12913313662339</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="P6" t="n">
         <v>30.12913313662339</v>
@@ -4674,22 +4674,22 @@
         <v>29.92792848229982</v>
       </c>
       <c r="T6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="U6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="X6" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="7">
@@ -4726,19 +4726,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M7" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N7" t="n">
-        <v>20.6199382928386</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="O7" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P7" t="n">
         <v>40.03871513172544</v>
@@ -4747,28 +4747,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R7" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S7" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T7" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="U7" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V7" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W7" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X7" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="C8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="D8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="E8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F8" t="n">
         <v>13.01901823983628</v>
@@ -4808,16 +4808,16 @@
         <v>24.60247016152901</v>
       </c>
       <c r="L8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O8" t="n">
-        <v>47.77178672141554</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P8" t="n">
         <v>47.77178672141554</v>
@@ -4832,22 +4832,22 @@
         <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U8" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V8" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="X8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.58103920519164</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F9" t="n">
         <v>0.9554357344283108</v>
@@ -4881,22 +4881,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="K9" t="n">
         <v>12.77895294797866</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="N9" t="n">
         <v>24.60247016152901</v>
       </c>
-      <c r="L9" t="n">
-        <v>24.60247016152901</v>
-      </c>
-      <c r="M9" t="n">
-        <v>24.60247016152901</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>36.42598737507935</v>
-      </c>
-      <c r="O9" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
         <v>47.77178672141554</v>
@@ -4905,22 +4905,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S9" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T9" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="S9" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="T9" t="n">
-        <v>23.64462171059961</v>
-      </c>
       <c r="U9" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V9" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W9" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X9" t="n">
         <v>23.64462171059961</v>
@@ -4969,43 +4969,43 @@
         <v>12.77895294797866</v>
       </c>
       <c r="M10" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V10" t="n">
         <v>13.01901823983628</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1292.278024338193</v>
+        <v>998.1861543111092</v>
       </c>
       <c r="C11" t="n">
-        <v>1014.547759542059</v>
+        <v>720.4558895149751</v>
       </c>
       <c r="D11" t="n">
-        <v>1014.547759542059</v>
+        <v>451.835418613257</v>
       </c>
       <c r="E11" t="n">
-        <v>723.965533519224</v>
+        <v>412.5762855863524</v>
       </c>
       <c r="F11" t="n">
-        <v>414.0178367004528</v>
+        <v>102.6285887675811</v>
       </c>
       <c r="G11" t="n">
         <v>102.6285887675811</v>
@@ -5039,22 +5039,22 @@
         <v>53.72464675883711</v>
       </c>
       <c r="J11" t="n">
-        <v>168.2509634005561</v>
+        <v>168.2509634005554</v>
       </c>
       <c r="K11" t="n">
-        <v>472.1294420386278</v>
+        <v>472.1294420386271</v>
       </c>
       <c r="L11" t="n">
-        <v>899.0875724614705</v>
+        <v>899.08757246147</v>
       </c>
       <c r="M11" t="n">
-        <v>1380.310416942196</v>
+        <v>1380.310416942195</v>
       </c>
       <c r="N11" t="n">
-        <v>1848.049121755376</v>
+        <v>1848.049121755375</v>
       </c>
       <c r="O11" t="n">
-        <v>2237.478527880638</v>
+        <v>2237.478527880637</v>
       </c>
       <c r="P11" t="n">
         <v>2537.690056379756</v>
@@ -5072,19 +5072,19 @@
         <v>2496.939367458559</v>
       </c>
       <c r="U11" t="n">
-        <v>2346.298424622962</v>
+        <v>2346.298424622963</v>
       </c>
       <c r="V11" t="n">
-        <v>2113.522644389961</v>
+        <v>2113.522644389962</v>
       </c>
       <c r="W11" t="n">
-        <v>1871.456431538257</v>
+        <v>1855.191208118622</v>
       </c>
       <c r="X11" t="n">
-        <v>1871.456431538257</v>
+        <v>1577.364561511174</v>
       </c>
       <c r="Y11" t="n">
-        <v>1582.118069985154</v>
+        <v>1288.02619995807</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.72464675883711</v>
       </c>
       <c r="J12" t="n">
-        <v>53.72464675883711</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K12" t="n">
-        <v>169.585594429572</v>
+        <v>330.882280407606</v>
       </c>
       <c r="L12" t="n">
-        <v>593.6185029317521</v>
+        <v>754.9151889097861</v>
       </c>
       <c r="M12" t="n">
-        <v>1146.581421712019</v>
+        <v>1307.878107690053</v>
       </c>
       <c r="N12" t="n">
-        <v>1727.57452656715</v>
+        <v>1888.871212545184</v>
       </c>
       <c r="O12" t="n">
-        <v>2183.561479726303</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.852091969407</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="Q12" t="n">
         <v>2536.852091969407</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.8084273519463</v>
+        <v>414.8084273519466</v>
       </c>
       <c r="C13" t="n">
-        <v>349.395951684685</v>
+        <v>349.3959516846854</v>
       </c>
       <c r="D13" t="n">
-        <v>300.5275523835061</v>
+        <v>300.5275523835065</v>
       </c>
       <c r="E13" t="n">
-        <v>252.7220320158834</v>
+        <v>252.7220320158837</v>
       </c>
       <c r="F13" t="n">
-        <v>204.4448709127189</v>
+        <v>204.4448709127193</v>
       </c>
       <c r="G13" t="n">
         <v>139.9579429426071</v>
       </c>
       <c r="H13" t="n">
-        <v>86.82771524364702</v>
+        <v>86.82771524364701</v>
       </c>
       <c r="I13" t="n">
         <v>53.72464675883711</v>
       </c>
       <c r="J13" t="n">
-        <v>112.8831489441029</v>
+        <v>112.8831489441028</v>
       </c>
       <c r="K13" t="n">
         <v>274.7305768552363</v>
@@ -5230,19 +5230,19 @@
         <v>1260.499892423348</v>
       </c>
       <c r="U13" t="n">
-        <v>1077.525655517559</v>
+        <v>1077.52565551756</v>
       </c>
       <c r="V13" t="n">
-        <v>920.9938449470405</v>
+        <v>920.9938449470407</v>
       </c>
       <c r="W13" t="n">
-        <v>739.040937335498</v>
+        <v>739.0409373354983</v>
       </c>
       <c r="X13" t="n">
-        <v>611.9919671019322</v>
+        <v>611.9919671019325</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.1603021652677</v>
+        <v>494.1603021652679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>998.186154311109</v>
+        <v>1457.646283753867</v>
       </c>
       <c r="C14" t="n">
-        <v>720.4558895149747</v>
+        <v>1457.646283753867</v>
       </c>
       <c r="D14" t="n">
-        <v>451.8354186132564</v>
+        <v>1189.025812852149</v>
       </c>
       <c r="E14" t="n">
-        <v>451.8354186132564</v>
+        <v>898.4435868293144</v>
       </c>
       <c r="F14" t="n">
-        <v>451.8354186132564</v>
+        <v>588.4958900105432</v>
       </c>
       <c r="G14" t="n">
-        <v>326.0105840864154</v>
+        <v>277.1066420776715</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6285887675811</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="I14" t="n">
         <v>53.72464675883712</v>
@@ -5279,10 +5279,10 @@
         <v>168.250963400556</v>
       </c>
       <c r="K14" t="n">
-        <v>472.1294420386278</v>
+        <v>472.1294420386276</v>
       </c>
       <c r="L14" t="n">
-        <v>899.0875724614705</v>
+        <v>899.0875724614704</v>
       </c>
       <c r="M14" t="n">
         <v>1380.310416942196</v>
@@ -5291,7 +5291,7 @@
         <v>1848.049121755376</v>
       </c>
       <c r="O14" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P14" t="n">
         <v>2537.690056379757</v>
@@ -5306,22 +5306,22 @@
         <v>2614.856845998902</v>
       </c>
       <c r="T14" t="n">
-        <v>2496.939367458559</v>
+        <v>2496.93936745856</v>
       </c>
       <c r="U14" t="n">
         <v>2346.298424622963</v>
       </c>
       <c r="V14" t="n">
-        <v>2113.522644389962</v>
+        <v>2113.522644389963</v>
       </c>
       <c r="W14" t="n">
-        <v>1855.191208118622</v>
+        <v>1855.191208118623</v>
       </c>
       <c r="X14" t="n">
-        <v>1577.364561511173</v>
+        <v>1855.191208118623</v>
       </c>
       <c r="Y14" t="n">
-        <v>1288.02619995807</v>
+        <v>1747.486329400828</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>53.72464675883712</v>
       </c>
       <c r="K15" t="n">
-        <v>53.72464675883712</v>
+        <v>326.506921744975</v>
       </c>
       <c r="L15" t="n">
-        <v>477.7575552610173</v>
+        <v>750.5398302471552</v>
       </c>
       <c r="M15" t="n">
-        <v>1030.720474041284</v>
+        <v>954.5874954469499</v>
       </c>
       <c r="N15" t="n">
-        <v>1611.713578896415</v>
+        <v>1535.580600302081</v>
       </c>
       <c r="O15" t="n">
-        <v>2067.700532055569</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P15" t="n">
-        <v>2420.991144298672</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="Q15" t="n">
         <v>2536.852091969407</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.8084273519462</v>
+        <v>414.8084273519467</v>
       </c>
       <c r="C16" t="n">
-        <v>349.3959516846849</v>
+        <v>349.3959516846854</v>
       </c>
       <c r="D16" t="n">
-        <v>300.5275523835061</v>
+        <v>300.5275523835066</v>
       </c>
       <c r="E16" t="n">
-        <v>252.7220320158833</v>
+        <v>252.7220320158838</v>
       </c>
       <c r="F16" t="n">
-        <v>204.4448709127189</v>
+        <v>204.4448709127194</v>
       </c>
       <c r="G16" t="n">
-        <v>139.9579429426067</v>
+        <v>139.9579429426071</v>
       </c>
       <c r="H16" t="n">
-        <v>86.82771524364702</v>
+        <v>86.82771524364703</v>
       </c>
       <c r="I16" t="n">
         <v>53.72464675883712</v>
@@ -5443,7 +5443,7 @@
         <v>510.883656725043</v>
       </c>
       <c r="M16" t="n">
-        <v>766.2396585402716</v>
+        <v>766.2396585402718</v>
       </c>
       <c r="N16" t="n">
         <v>1021.186742277372</v>
@@ -5458,28 +5458,28 @@
         <v>1529.012150174138</v>
       </c>
       <c r="R16" t="n">
-        <v>1494.005229097611</v>
+        <v>1494.005229097612</v>
       </c>
       <c r="S16" t="n">
-        <v>1388.495500902426</v>
+        <v>1388.495500902427</v>
       </c>
       <c r="T16" t="n">
         <v>1260.499892423348</v>
       </c>
       <c r="U16" t="n">
-        <v>1077.525655517559</v>
+        <v>1077.52565551756</v>
       </c>
       <c r="V16" t="n">
-        <v>920.9938449470405</v>
+        <v>920.993844947041</v>
       </c>
       <c r="W16" t="n">
-        <v>739.040937335498</v>
+        <v>739.0409373354985</v>
       </c>
       <c r="X16" t="n">
-        <v>611.9919671019321</v>
+        <v>611.9919671019327</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.1603021652676</v>
+        <v>494.1603021652681</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1419.437808161905</v>
       </c>
       <c r="C17" t="n">
-        <v>1194.364000097121</v>
+        <v>1194.36400009712</v>
       </c>
       <c r="D17" t="n">
-        <v>978.3999859267522</v>
+        <v>978.3999859267518</v>
       </c>
       <c r="E17" t="n">
-        <v>740.474216635267</v>
+        <v>740.4742166352664</v>
       </c>
       <c r="F17" t="n">
-        <v>483.1829765478453</v>
+        <v>483.1829765478446</v>
       </c>
       <c r="G17" t="n">
-        <v>224.450185346322</v>
+        <v>224.4501853463221</v>
       </c>
       <c r="H17" t="n">
         <v>53.72464675883712</v>
@@ -5513,22 +5513,22 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J17" t="n">
-        <v>168.2509634005557</v>
+        <v>168.2509634005561</v>
       </c>
       <c r="K17" t="n">
-        <v>472.1294420386274</v>
+        <v>472.1294420386279</v>
       </c>
       <c r="L17" t="n">
-        <v>899.08757246147</v>
+        <v>899.0875724614706</v>
       </c>
       <c r="M17" t="n">
-        <v>1380.310416942195</v>
+        <v>1380.310416942196</v>
       </c>
       <c r="N17" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755376</v>
       </c>
       <c r="O17" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P17" t="n">
         <v>2537.690056379757</v>
@@ -5555,7 +5555,7 @@
         <v>2118.473491775369</v>
       </c>
       <c r="X17" t="n">
-        <v>1893.303301899271</v>
+        <v>1893.30330189927</v>
       </c>
       <c r="Y17" t="n">
         <v>1656.621397077517</v>
@@ -5592,25 +5592,25 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J18" t="n">
-        <v>53.72464675883712</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K18" t="n">
-        <v>53.72464675883712</v>
+        <v>412.0903181565986</v>
       </c>
       <c r="L18" t="n">
-        <v>477.7575552610173</v>
+        <v>836.1232266587788</v>
       </c>
       <c r="M18" t="n">
-        <v>1030.720474041284</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N18" t="n">
-        <v>1611.713578896415</v>
+        <v>1535.580600302081</v>
       </c>
       <c r="O18" t="n">
-        <v>2067.700532055569</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P18" t="n">
-        <v>2420.991144298672</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="Q18" t="n">
         <v>2536.852091969407</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.949185917405</v>
+        <v>78.78490790112252</v>
       </c>
       <c r="C19" t="n">
-        <v>103.1931669814933</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1931669814933</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1931669814933</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="F19" t="n">
-        <v>103.1931669814933</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="G19" t="n">
-        <v>91.36269574273062</v>
+        <v>54.19841772644779</v>
       </c>
       <c r="H19" t="n">
         <v>53.72464675883712</v>
@@ -5680,43 +5680,43 @@
         <v>247.4654658537285</v>
       </c>
       <c r="M19" t="n">
-        <v>400.6916233259327</v>
+        <v>400.6916233259328</v>
       </c>
       <c r="N19" t="n">
-        <v>553.5088627200088</v>
+        <v>553.5088627200089</v>
       </c>
       <c r="O19" t="n">
-        <v>683.7417641658742</v>
+        <v>683.7417641658743</v>
       </c>
       <c r="P19" t="n">
-        <v>773.894333812274</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="Q19" t="n">
-        <v>773.894333812274</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="R19" t="n">
-        <v>773.894333812274</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="S19" t="n">
-        <v>721.0410623484378</v>
+        <v>683.8767843321565</v>
       </c>
       <c r="T19" t="n">
-        <v>645.7019106007093</v>
+        <v>608.5376325844278</v>
       </c>
       <c r="U19" t="n">
-        <v>515.3841304262705</v>
+        <v>478.2198524099889</v>
       </c>
       <c r="V19" t="n">
-        <v>411.5087765871011</v>
+        <v>374.3444985708193</v>
       </c>
       <c r="W19" t="n">
-        <v>282.2123257069081</v>
+        <v>245.0480476906262</v>
       </c>
       <c r="X19" t="n">
-        <v>207.8198122046919</v>
+        <v>170.6555341884097</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.6446039993769</v>
+        <v>105.4803259830946</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D20" t="n">
-        <v>978.3999859267517</v>
+        <v>978.3999859267515</v>
       </c>
       <c r="E20" t="n">
-        <v>740.4742166352664</v>
+        <v>740.474216635266</v>
       </c>
       <c r="F20" t="n">
-        <v>483.1829765478446</v>
+        <v>483.1829765478442</v>
       </c>
       <c r="G20" t="n">
         <v>224.4501853463221</v>
@@ -5750,13 +5750,13 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J20" t="n">
-        <v>168.250963400556</v>
+        <v>168.2509634005561</v>
       </c>
       <c r="K20" t="n">
-        <v>472.1294420386276</v>
+        <v>472.1294420386279</v>
       </c>
       <c r="L20" t="n">
-        <v>899.0875724614704</v>
+        <v>899.0875724614706</v>
       </c>
       <c r="M20" t="n">
         <v>1380.310416942196</v>
@@ -5792,7 +5792,7 @@
         <v>2118.473491775369</v>
       </c>
       <c r="X20" t="n">
-        <v>1893.30330189927</v>
+        <v>1893.303301899271</v>
       </c>
       <c r="Y20" t="n">
         <v>1656.621397077516</v>
@@ -5832,16 +5832,16 @@
         <v>139.3080431704606</v>
       </c>
       <c r="K21" t="n">
-        <v>412.0903181565985</v>
+        <v>412.0903181565986</v>
       </c>
       <c r="L21" t="n">
-        <v>836.1232266587787</v>
+        <v>836.1232266587788</v>
       </c>
       <c r="M21" t="n">
-        <v>1389.086145439046</v>
+        <v>954.5874954469499</v>
       </c>
       <c r="N21" t="n">
-        <v>1970.079250294176</v>
+        <v>1535.580600302081</v>
       </c>
       <c r="O21" t="n">
         <v>1991.567553461234</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.9491859174044</v>
+        <v>78.78490790112252</v>
       </c>
       <c r="C22" t="n">
-        <v>103.1931669814926</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1931669814926</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="E22" t="n">
-        <v>103.1931669814926</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="F22" t="n">
-        <v>103.1931669814926</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="G22" t="n">
-        <v>91.36269574272983</v>
+        <v>54.19841772644779</v>
       </c>
       <c r="H22" t="n">
         <v>53.72464675883712</v>
@@ -5917,43 +5917,43 @@
         <v>247.4654658537285</v>
       </c>
       <c r="M22" t="n">
-        <v>400.6916233259327</v>
+        <v>400.6916233259328</v>
       </c>
       <c r="N22" t="n">
-        <v>553.5088627200088</v>
+        <v>553.5088627200089</v>
       </c>
       <c r="O22" t="n">
-        <v>683.7417641658742</v>
+        <v>683.7417641658743</v>
       </c>
       <c r="P22" t="n">
-        <v>773.894333812274</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="Q22" t="n">
-        <v>773.894333812274</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="R22" t="n">
-        <v>773.894333812274</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="S22" t="n">
-        <v>721.0410623484377</v>
+        <v>683.8767843321565</v>
       </c>
       <c r="T22" t="n">
-        <v>645.7019106007091</v>
+        <v>608.5376325844278</v>
       </c>
       <c r="U22" t="n">
-        <v>515.3841304262703</v>
+        <v>478.2198524099889</v>
       </c>
       <c r="V22" t="n">
-        <v>411.5087765871008</v>
+        <v>374.3444985708193</v>
       </c>
       <c r="W22" t="n">
-        <v>282.2123257069078</v>
+        <v>245.0480476906262</v>
       </c>
       <c r="X22" t="n">
-        <v>207.8198122046914</v>
+        <v>170.6555341884097</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.6446039993764</v>
+        <v>105.4803259830946</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D23" t="n">
-        <v>978.3999859267517</v>
+        <v>978.3999859267519</v>
       </c>
       <c r="E23" t="n">
-        <v>740.4742166352664</v>
+        <v>740.4742166352667</v>
       </c>
       <c r="F23" t="n">
-        <v>483.1829765478446</v>
+        <v>483.1829765478449</v>
       </c>
       <c r="G23" t="n">
         <v>224.4501853463221</v>
@@ -5990,10 +5990,10 @@
         <v>168.2509634005561</v>
       </c>
       <c r="K23" t="n">
-        <v>472.1294420386278</v>
+        <v>472.1294420386279</v>
       </c>
       <c r="L23" t="n">
-        <v>899.0875724614705</v>
+        <v>899.0875724614706</v>
       </c>
       <c r="M23" t="n">
         <v>1380.310416942196</v>
@@ -6032,7 +6032,7 @@
         <v>1893.303301899271</v>
       </c>
       <c r="Y23" t="n">
-        <v>1656.621397077516</v>
+        <v>1656.621397077517</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J24" t="n">
-        <v>53.72464675883712</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K24" t="n">
-        <v>326.506921744975</v>
+        <v>412.0903181565986</v>
       </c>
       <c r="L24" t="n">
-        <v>750.5398302471551</v>
+        <v>836.1232266587788</v>
       </c>
       <c r="M24" t="n">
-        <v>1303.502749027422</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N24" t="n">
-        <v>1884.495853882553</v>
+        <v>1535.580600302081</v>
       </c>
       <c r="O24" t="n">
-        <v>2340.482807041707</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.852091969407</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="Q24" t="n">
         <v>2536.852091969407</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.61483613210451</v>
+        <v>78.78490790112227</v>
       </c>
       <c r="C25" t="n">
-        <v>83.85881719619267</v>
+        <v>66.02888896521043</v>
       </c>
       <c r="D25" t="n">
-        <v>83.85881719619267</v>
+        <v>66.02888896521043</v>
       </c>
       <c r="E25" t="n">
-        <v>83.85881719619267</v>
+        <v>66.02888896521043</v>
       </c>
       <c r="F25" t="n">
         <v>66.02888896521043</v>
@@ -6154,43 +6154,43 @@
         <v>247.4654658537285</v>
       </c>
       <c r="M25" t="n">
-        <v>400.6916233259327</v>
+        <v>400.6916233259328</v>
       </c>
       <c r="N25" t="n">
-        <v>553.5088627200088</v>
+        <v>553.5088627200089</v>
       </c>
       <c r="O25" t="n">
-        <v>683.7417641658742</v>
+        <v>683.7417641658743</v>
       </c>
       <c r="P25" t="n">
-        <v>773.894333812274</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="Q25" t="n">
-        <v>754.5599840269742</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="R25" t="n">
-        <v>754.5599840269742</v>
+        <v>773.8943338122741</v>
       </c>
       <c r="S25" t="n">
-        <v>701.7067125631379</v>
+        <v>721.0410623484378</v>
       </c>
       <c r="T25" t="n">
-        <v>626.3675608154093</v>
+        <v>645.7019106007092</v>
       </c>
       <c r="U25" t="n">
-        <v>496.0497806409705</v>
+        <v>515.3841304262703</v>
       </c>
       <c r="V25" t="n">
-        <v>392.174426801801</v>
+        <v>411.5087765871008</v>
       </c>
       <c r="W25" t="n">
-        <v>262.8779759216079</v>
+        <v>245.0480476906257</v>
       </c>
       <c r="X25" t="n">
-        <v>188.4854624193915</v>
+        <v>170.6555341884093</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.3102542140765</v>
+        <v>105.4803259830942</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1253.972496416968</v>
       </c>
       <c r="E26" t="n">
-        <v>963.3902703941333</v>
+        <v>963.390270394133</v>
       </c>
       <c r="F26" t="n">
-        <v>653.4425735753621</v>
+        <v>653.4425735753618</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0533256424904</v>
+        <v>342.0533256424901</v>
       </c>
       <c r="H26" t="n">
         <v>118.6713303236553</v>
@@ -6224,22 +6224,22 @@
         <v>69.76738831491134</v>
       </c>
       <c r="J26" t="n">
-        <v>210.7084716481414</v>
+        <v>210.7084716481398</v>
       </c>
       <c r="K26" t="n">
-        <v>616.7167946292375</v>
+        <v>616.716794629236</v>
       </c>
       <c r="L26" t="n">
-        <v>1145.804769395105</v>
+        <v>1145.804769395103</v>
       </c>
       <c r="M26" t="n">
-        <v>1729.157458218854</v>
+        <v>1729.157458218853</v>
       </c>
       <c r="N26" t="n">
-        <v>2299.026007375059</v>
+        <v>2299.026007375058</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.585257843345</v>
+        <v>2790.585257843344</v>
       </c>
       <c r="P26" t="n">
         <v>3192.926630685488</v>
@@ -6288,10 +6288,10 @@
         <v>636.2045419565818</v>
       </c>
       <c r="E27" t="n">
-        <v>489.1765320134531</v>
+        <v>489.176532013453</v>
       </c>
       <c r="F27" t="n">
-        <v>354.4827339633274</v>
+        <v>354.4827339633273</v>
       </c>
       <c r="G27" t="n">
         <v>226.0277740388368</v>
@@ -6303,19 +6303,19 @@
         <v>69.76738831491134</v>
       </c>
       <c r="J27" t="n">
-        <v>69.76738831491134</v>
+        <v>155.3507847265349</v>
       </c>
       <c r="K27" t="n">
-        <v>342.5496633010492</v>
+        <v>428.1330597126729</v>
       </c>
       <c r="L27" t="n">
-        <v>766.5825718032294</v>
+        <v>852.1659682148531</v>
       </c>
       <c r="M27" t="n">
-        <v>1319.545490583496</v>
+        <v>1405.12888699512</v>
       </c>
       <c r="N27" t="n">
-        <v>1900.538595438627</v>
+        <v>1551.623341858155</v>
       </c>
       <c r="O27" t="n">
         <v>2007.610295017308</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.8511689080207</v>
+        <v>430.851168908021</v>
       </c>
       <c r="C28" t="n">
-        <v>365.4386932407594</v>
+        <v>365.4386932407597</v>
       </c>
       <c r="D28" t="n">
-        <v>316.5702939395806</v>
+        <v>316.5702939395809</v>
       </c>
       <c r="E28" t="n">
-        <v>268.7647735719579</v>
+        <v>268.7647735719581</v>
       </c>
       <c r="F28" t="n">
-        <v>220.4876124687934</v>
+        <v>220.4876124687937</v>
       </c>
       <c r="G28" t="n">
-        <v>156.0006844986813</v>
+        <v>156.0006844986815</v>
       </c>
       <c r="H28" t="n">
         <v>102.8704567997212</v>
@@ -6388,10 +6388,10 @@
         <v>290.7733184113107</v>
       </c>
       <c r="L28" t="n">
-        <v>526.9263982811169</v>
+        <v>526.926398281117</v>
       </c>
       <c r="M28" t="n">
-        <v>782.2824000963458</v>
+        <v>782.2824000963457</v>
       </c>
       <c r="N28" t="n">
         <v>1037.229483833446</v>
@@ -6415,19 +6415,19 @@
         <v>1276.542633979422</v>
       </c>
       <c r="U28" t="n">
-        <v>1093.568397073634</v>
+        <v>1093.568397073635</v>
       </c>
       <c r="V28" t="n">
-        <v>937.0365865031151</v>
+        <v>937.0365865031156</v>
       </c>
       <c r="W28" t="n">
-        <v>755.0836788915726</v>
+        <v>755.0836788915731</v>
       </c>
       <c r="X28" t="n">
-        <v>628.0347086580068</v>
+        <v>628.0347086580073</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.2030437213421</v>
+        <v>510.2030437213424</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800.32323211482</v>
+        <v>1800.323232114819</v>
       </c>
       <c r="C29" t="n">
         <v>1522.592967318685</v>
@@ -6446,10 +6446,10 @@
         <v>1253.972496416967</v>
       </c>
       <c r="E29" t="n">
-        <v>963.3902703941326</v>
+        <v>963.3902703941319</v>
       </c>
       <c r="F29" t="n">
-        <v>653.4425735753614</v>
+        <v>653.4425735753605</v>
       </c>
       <c r="G29" t="n">
         <v>342.0533256424897</v>
@@ -6458,7 +6458,7 @@
         <v>118.6713303236553</v>
       </c>
       <c r="I29" t="n">
-        <v>69.76738831491134</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J29" t="n">
         <v>286.4235492996547</v>
@@ -6470,19 +6470,19 @@
         <v>1221.519847046618</v>
       </c>
       <c r="M29" t="n">
-        <v>1729.157458218854</v>
+        <v>1729.157458218853</v>
       </c>
       <c r="N29" t="n">
         <v>2299.026007375058</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.585257843345</v>
+        <v>2790.585257843344</v>
       </c>
       <c r="P29" t="n">
         <v>3192.926630685488</v>
       </c>
       <c r="Q29" t="n">
-        <v>3443.598756590612</v>
+        <v>3443.598756590611</v>
       </c>
       <c r="R29" t="n">
         <v>3488.369415745567</v>
@@ -6491,13 +6491,13 @@
         <v>3416.993923802613</v>
       </c>
       <c r="T29" t="n">
-        <v>3299.076445262271</v>
+        <v>3299.07644526227</v>
       </c>
       <c r="U29" t="n">
         <v>3148.435502426673</v>
       </c>
       <c r="V29" t="n">
-        <v>2915.659722193673</v>
+        <v>2915.659722193672</v>
       </c>
       <c r="W29" t="n">
         <v>2657.328285922332</v>
@@ -6525,31 +6525,31 @@
         <v>636.2045419565818</v>
       </c>
       <c r="E30" t="n">
-        <v>489.1765320134531</v>
+        <v>489.176532013453</v>
       </c>
       <c r="F30" t="n">
-        <v>354.4827339633274</v>
+        <v>354.4827339633273</v>
       </c>
       <c r="G30" t="n">
         <v>226.0277740388368</v>
       </c>
       <c r="H30" t="n">
-        <v>128.7317376162325</v>
+        <v>128.7317376162324</v>
       </c>
       <c r="I30" t="n">
-        <v>69.76738831491134</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J30" t="n">
-        <v>155.3507847265349</v>
+        <v>155.3507847265348</v>
       </c>
       <c r="K30" t="n">
-        <v>155.3507847265349</v>
+        <v>428.1330597126728</v>
       </c>
       <c r="L30" t="n">
-        <v>579.3836932287151</v>
+        <v>852.1659682148529</v>
       </c>
       <c r="M30" t="n">
-        <v>970.6302370030238</v>
+        <v>1405.12888699512</v>
       </c>
       <c r="N30" t="n">
         <v>1551.623341858155</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>430.851168908021</v>
+        <v>430.8511689080208</v>
       </c>
       <c r="C31" t="n">
-        <v>365.4386932407597</v>
+        <v>365.4386932407595</v>
       </c>
       <c r="D31" t="n">
-        <v>316.5702939395808</v>
+        <v>316.5702939395807</v>
       </c>
       <c r="E31" t="n">
-        <v>268.7647735719581</v>
+        <v>268.7647735719579</v>
       </c>
       <c r="F31" t="n">
-        <v>220.4876124687936</v>
+        <v>220.4876124687935</v>
       </c>
       <c r="G31" t="n">
-        <v>156.0006844986814</v>
+        <v>156.0006844986813</v>
       </c>
       <c r="H31" t="n">
-        <v>102.8704567997215</v>
+        <v>102.8704567997212</v>
       </c>
       <c r="I31" t="n">
-        <v>69.76738831491134</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J31" t="n">
-        <v>128.925890500177</v>
+        <v>128.9258905001773</v>
       </c>
       <c r="K31" t="n">
-        <v>290.7733184113105</v>
+        <v>290.7733184113108</v>
       </c>
       <c r="L31" t="n">
         <v>526.9263982811174</v>
       </c>
       <c r="M31" t="n">
-        <v>782.2824000963465</v>
+        <v>782.2824000963459</v>
       </c>
       <c r="N31" t="n">
-        <v>1037.229483833447</v>
+        <v>1037.229483833446</v>
       </c>
       <c r="O31" t="n">
-        <v>1269.592229622337</v>
+        <v>1269.592229622336</v>
       </c>
       <c r="P31" t="n">
-        <v>1461.874643611761</v>
+        <v>1461.87464361176</v>
       </c>
       <c r="Q31" t="n">
-        <v>1545.054891730213</v>
+        <v>1545.054891730212</v>
       </c>
       <c r="R31" t="n">
-        <v>1510.047970653687</v>
+        <v>1510.047970653686</v>
       </c>
       <c r="S31" t="n">
-        <v>1404.538242458501</v>
+        <v>1404.5382424585</v>
       </c>
       <c r="T31" t="n">
         <v>1276.542633979423</v>
       </c>
       <c r="U31" t="n">
-        <v>1093.568397073635</v>
+        <v>1093.568397073634</v>
       </c>
       <c r="V31" t="n">
-        <v>937.0365865031156</v>
+        <v>937.0365865031154</v>
       </c>
       <c r="W31" t="n">
-        <v>755.0836788915731</v>
+        <v>755.0836788915728</v>
       </c>
       <c r="X31" t="n">
-        <v>628.0347086580073</v>
+        <v>628.034708658007</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.2030437213424</v>
+        <v>510.2030437213422</v>
       </c>
     </row>
     <row r="32">
@@ -6674,67 +6674,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1796.631979276008</v>
+        <v>1796.631979276007</v>
       </c>
       <c r="C32" t="n">
-        <v>1519.406941823733</v>
+        <v>1519.406941823732</v>
       </c>
       <c r="D32" t="n">
-        <v>1251.291698265875</v>
+        <v>1251.291698265874</v>
       </c>
       <c r="E32" t="n">
-        <v>961.2146995868998</v>
+        <v>961.214699586899</v>
       </c>
       <c r="F32" t="n">
-        <v>651.7722301119882</v>
+        <v>651.7722301119875</v>
       </c>
       <c r="G32" t="n">
-        <v>340.8882095229764</v>
+        <v>340.888209522976</v>
       </c>
       <c r="H32" t="n">
-        <v>118.0114415480018</v>
+        <v>118.0114415480017</v>
       </c>
       <c r="I32" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311753</v>
       </c>
       <c r="J32" t="n">
-        <v>286.7640611875778</v>
+        <v>286.7640611875779</v>
       </c>
       <c r="K32" t="n">
-        <v>605.5175098015277</v>
+        <v>693.2675574883908</v>
       </c>
       <c r="L32" t="n">
-        <v>1135.100657887112</v>
+        <v>1222.850705573975</v>
       </c>
       <c r="M32" t="n">
         <v>1718.948520030578</v>
       </c>
       <c r="N32" t="n">
-        <v>2289.3122425065</v>
+        <v>2289.312242506499</v>
       </c>
       <c r="O32" t="n">
-        <v>2781.366666294503</v>
+        <v>2781.366666294502</v>
       </c>
       <c r="P32" t="n">
-        <v>3184.203212456364</v>
+        <v>3184.203212456363</v>
       </c>
       <c r="Q32" t="n">
         <v>3435.370511681204</v>
       </c>
       <c r="R32" t="n">
-        <v>3480.636344155877</v>
+        <v>3480.636344155876</v>
       </c>
       <c r="S32" t="n">
-        <v>3409.766079556783</v>
+        <v>3409.766079556782</v>
       </c>
       <c r="T32" t="n">
-        <v>3292.3538283603</v>
+        <v>3292.353828360299</v>
       </c>
       <c r="U32" t="n">
         <v>3142.218112868562</v>
       </c>
       <c r="V32" t="n">
-        <v>2909.947559979422</v>
+        <v>2909.947559979421</v>
       </c>
       <c r="W32" t="n">
         <v>2652.121351051941</v>
@@ -6743,7 +6743,7 @@
         <v>2374.799931788352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2085.966797579109</v>
+        <v>2085.966797579108</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>128.5770761844387</v>
       </c>
       <c r="I33" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311753</v>
       </c>
       <c r="J33" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311753</v>
       </c>
       <c r="K33" t="n">
         <v>342.3950018692555</v>
@@ -6789,13 +6789,13 @@
         <v>1319.390829151703</v>
       </c>
       <c r="N33" t="n">
-        <v>1743.46260669143</v>
+        <v>1551.468680426361</v>
       </c>
       <c r="O33" t="n">
-        <v>2199.449559850584</v>
+        <v>2007.455633585515</v>
       </c>
       <c r="P33" t="n">
-        <v>2552.740172093687</v>
+        <v>2360.746245828618</v>
       </c>
       <c r="Q33" t="n">
         <v>2552.740172093687</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>427.1599160692089</v>
+        <v>427.1599160692087</v>
       </c>
       <c r="C34" t="n">
-        <v>362.2526677458073</v>
+        <v>362.2526677458072</v>
       </c>
       <c r="D34" t="n">
         <v>313.8894957884881</v>
@@ -6853,7 +6853,7 @@
         <v>102.2105680240677</v>
       </c>
       <c r="I34" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311753</v>
       </c>
       <c r="J34" t="n">
         <v>129.2664023881003</v>
@@ -6871,13 +6871,13 @@
         <v>1039.550689000237</v>
       </c>
       <c r="O34" t="n">
-        <v>1272.408608108844</v>
+        <v>1260.363584049352</v>
       </c>
       <c r="P34" t="n">
-        <v>1465.186195417985</v>
+        <v>1453.141171358493</v>
       </c>
       <c r="Q34" t="n">
-        <v>1536.816592796663</v>
+        <v>1536.816592796662</v>
       </c>
       <c r="R34" t="n">
         <v>1502.314899063996</v>
@@ -6892,16 +6892,16 @@
         <v>1087.351007515523</v>
       </c>
       <c r="V34" t="n">
-        <v>931.3244242888641</v>
+        <v>931.324424288864</v>
       </c>
       <c r="W34" t="n">
-        <v>749.8767440211814</v>
+        <v>749.8767440211813</v>
       </c>
       <c r="X34" t="n">
-        <v>623.3330011314753</v>
+        <v>623.3330011314752</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0065635386705</v>
+        <v>506.0065635386704</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D35" t="n">
-        <v>978.3999859267519</v>
+        <v>978.3999859267515</v>
       </c>
       <c r="E35" t="n">
-        <v>740.4742166352667</v>
+        <v>740.4742166352661</v>
       </c>
       <c r="F35" t="n">
-        <v>483.1829765478449</v>
+        <v>483.1829765478442</v>
       </c>
       <c r="G35" t="n">
         <v>224.4501853463221</v>
@@ -6935,13 +6935,13 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J35" t="n">
-        <v>168.2509634005558</v>
+        <v>168.2509634005561</v>
       </c>
       <c r="K35" t="n">
-        <v>472.1294420386275</v>
+        <v>472.1294420386279</v>
       </c>
       <c r="L35" t="n">
-        <v>899.0875724614702</v>
+        <v>899.0875724614706</v>
       </c>
       <c r="M35" t="n">
         <v>1380.310416942196</v>
@@ -6953,7 +6953,7 @@
         <v>2237.478527880638</v>
       </c>
       <c r="P35" t="n">
-        <v>2537.690056379757</v>
+        <v>2537.690056379758</v>
       </c>
       <c r="Q35" t="n">
         <v>2686.232337941856</v>
@@ -6965,22 +6965,22 @@
         <v>2667.513302730252</v>
       </c>
       <c r="T35" t="n">
-        <v>2602.25228092126</v>
+        <v>2602.252280921259</v>
       </c>
       <c r="U35" t="n">
-        <v>2504.267794817012</v>
+        <v>2504.267794817011</v>
       </c>
       <c r="V35" t="n">
-        <v>2324.148471315361</v>
+        <v>2324.14847131536</v>
       </c>
       <c r="W35" t="n">
         <v>2118.473491775369</v>
       </c>
       <c r="X35" t="n">
-        <v>1893.303301899271</v>
+        <v>1893.30330189927</v>
       </c>
       <c r="Y35" t="n">
-        <v>1656.621397077517</v>
+        <v>1656.621397077516</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J36" t="n">
-        <v>53.72464675883712</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K36" t="n">
-        <v>326.5069217449751</v>
+        <v>412.0903181565986</v>
       </c>
       <c r="L36" t="n">
-        <v>750.5398302471554</v>
+        <v>836.1232266587788</v>
       </c>
       <c r="M36" t="n">
-        <v>1146.581421712019</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N36" t="n">
-        <v>1727.57452656715</v>
+        <v>1970.079250294177</v>
       </c>
       <c r="O36" t="n">
-        <v>2183.561479726303</v>
+        <v>2426.06620345333</v>
       </c>
       <c r="P36" t="n">
         <v>2536.852091969407</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.78490790112227</v>
+        <v>78.78490790112252</v>
       </c>
       <c r="C37" t="n">
-        <v>66.02888896521043</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="D37" t="n">
-        <v>66.02888896521043</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="E37" t="n">
-        <v>66.02888896521043</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="F37" t="n">
-        <v>66.02888896521043</v>
+        <v>66.0288889652106</v>
       </c>
       <c r="G37" t="n">
-        <v>54.1984177264477</v>
+        <v>54.19841772644779</v>
       </c>
       <c r="H37" t="n">
         <v>53.72464675883712</v>
@@ -7120,25 +7120,25 @@
         <v>773.8943338122741</v>
       </c>
       <c r="S37" t="n">
-        <v>721.0410623484378</v>
+        <v>721.0410623484377</v>
       </c>
       <c r="T37" t="n">
-        <v>645.7019106007092</v>
+        <v>645.701910600709</v>
       </c>
       <c r="U37" t="n">
-        <v>515.3841304262703</v>
+        <v>515.3841304262701</v>
       </c>
       <c r="V37" t="n">
-        <v>411.5087765871008</v>
+        <v>411.5087765871004</v>
       </c>
       <c r="W37" t="n">
-        <v>282.2123257069078</v>
+        <v>282.2123257069073</v>
       </c>
       <c r="X37" t="n">
-        <v>170.6555341884093</v>
+        <v>207.8198122046909</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.4803259830942</v>
+        <v>105.4803259830946</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J38" t="n">
-        <v>168.2509634005561</v>
+        <v>168.2509634005564</v>
       </c>
       <c r="K38" t="n">
-        <v>472.1294420386279</v>
+        <v>472.1294420386282</v>
       </c>
       <c r="L38" t="n">
-        <v>899.0875724614702</v>
+        <v>899.087572461471</v>
       </c>
       <c r="M38" t="n">
-        <v>1380.310416942196</v>
+        <v>1380.310416942197</v>
       </c>
       <c r="N38" t="n">
-        <v>1848.049121755376</v>
+        <v>1848.049121755377</v>
       </c>
       <c r="O38" t="n">
         <v>2237.478527880638</v>
@@ -7205,10 +7205,10 @@
         <v>2602.25228092126</v>
       </c>
       <c r="U38" t="n">
-        <v>2504.267794817011</v>
+        <v>2504.267794817012</v>
       </c>
       <c r="V38" t="n">
-        <v>2324.14847131536</v>
+        <v>2324.148471315361</v>
       </c>
       <c r="W38" t="n">
         <v>2118.473491775369</v>
@@ -7251,25 +7251,25 @@
         <v>53.72464675883712</v>
       </c>
       <c r="J39" t="n">
-        <v>53.72464675883712</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K39" t="n">
-        <v>326.5069217449751</v>
+        <v>412.0903181565986</v>
       </c>
       <c r="L39" t="n">
-        <v>750.5398302471554</v>
+        <v>836.1232266587788</v>
       </c>
       <c r="M39" t="n">
-        <v>1146.581421712019</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N39" t="n">
-        <v>1727.57452656715</v>
+        <v>1970.079250294177</v>
       </c>
       <c r="O39" t="n">
-        <v>2183.561479726303</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.852091969407</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.852091969407</v>
@@ -7351,25 +7351,25 @@
         <v>773.8943338122741</v>
       </c>
       <c r="Q40" t="n">
-        <v>773.8943338122741</v>
+        <v>754.5599840269743</v>
       </c>
       <c r="R40" t="n">
-        <v>773.8943338122741</v>
+        <v>754.5599840269743</v>
       </c>
       <c r="S40" t="n">
-        <v>721.0410623484378</v>
+        <v>701.706712563138</v>
       </c>
       <c r="T40" t="n">
-        <v>645.7019106007092</v>
+        <v>608.537632584427</v>
       </c>
       <c r="U40" t="n">
-        <v>515.3841304262703</v>
+        <v>478.2198524099882</v>
       </c>
       <c r="V40" t="n">
-        <v>411.5087765871008</v>
+        <v>374.3444985708187</v>
       </c>
       <c r="W40" t="n">
-        <v>282.2123257069078</v>
+        <v>245.0480476906257</v>
       </c>
       <c r="X40" t="n">
         <v>170.6555341884093</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.789553177358</v>
+        <v>1154.457331186877</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.593185490695</v>
+        <v>896.2609635002134</v>
       </c>
       <c r="D41" t="n">
-        <v>928.5066116984476</v>
+        <v>647.1743897079663</v>
       </c>
       <c r="E41" t="n">
-        <v>657.4582827850841</v>
+        <v>376.1260607946024</v>
       </c>
       <c r="F41" t="n">
-        <v>367.0444830757842</v>
+        <v>257.5727449682007</v>
       </c>
       <c r="G41" t="n">
-        <v>257.5727449682005</v>
+        <v>257.5727449682007</v>
       </c>
       <c r="H41" t="n">
         <v>53.72464675883714</v>
@@ -7412,10 +7412,10 @@
         <v>168.2509634005561</v>
       </c>
       <c r="K41" t="n">
-        <v>472.129442038628</v>
+        <v>472.1294420386279</v>
       </c>
       <c r="L41" t="n">
-        <v>899.0875724614707</v>
+        <v>899.0875724614706</v>
       </c>
       <c r="M41" t="n">
         <v>1380.310416942196</v>
@@ -7436,25 +7436,25 @@
         <v>2686.232337941857</v>
       </c>
       <c r="S41" t="n">
-        <v>2686.232337941857</v>
+        <v>2634.390743108374</v>
       </c>
       <c r="T41" t="n">
-        <v>2686.232337941857</v>
+        <v>2536.007161677502</v>
       </c>
       <c r="U41" t="n">
-        <v>2686.232337941857</v>
+        <v>2404.900115951376</v>
       </c>
       <c r="V41" t="n">
-        <v>2472.990454818327</v>
+        <v>2191.658232827846</v>
       </c>
       <c r="W41" t="n">
-        <v>2234.192915656457</v>
+        <v>1952.860693665977</v>
       </c>
       <c r="X41" t="n">
-        <v>1975.90016615848</v>
+        <v>1694.567944167999</v>
       </c>
       <c r="Y41" t="n">
-        <v>1706.095701714848</v>
+        <v>1424.763479724367</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>53.72464675883714</v>
       </c>
       <c r="J42" t="n">
-        <v>53.72464675883714</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K42" t="n">
-        <v>326.5069217449751</v>
+        <v>412.0903181565986</v>
       </c>
       <c r="L42" t="n">
-        <v>750.5398302471554</v>
+        <v>836.1232266587788</v>
       </c>
       <c r="M42" t="n">
-        <v>1303.502749027422</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N42" t="n">
-        <v>1535.580600302081</v>
+        <v>1970.079250294177</v>
       </c>
       <c r="O42" t="n">
         <v>1991.567553461234</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>278.0711475856496</v>
+        <v>278.0711475856506</v>
       </c>
       <c r="C43" t="n">
-        <v>232.1925690278593</v>
+        <v>232.1925690278602</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8580668361514</v>
+        <v>202.8580668361522</v>
       </c>
       <c r="E43" t="n">
-        <v>174.5864435779997</v>
+        <v>174.5864435780003</v>
       </c>
       <c r="F43" t="n">
-        <v>145.8431795843062</v>
+        <v>145.8431795843067</v>
       </c>
       <c r="G43" t="n">
-        <v>100.890148723665</v>
+        <v>100.8901487236654</v>
       </c>
       <c r="H43" t="n">
-        <v>67.29381813417604</v>
+        <v>67.29381813417619</v>
       </c>
       <c r="I43" t="n">
         <v>53.72464675883714</v>
       </c>
       <c r="J43" t="n">
-        <v>132.0283215010955</v>
+        <v>53.72464675883714</v>
       </c>
       <c r="K43" t="n">
-        <v>313.0209219692216</v>
+        <v>113.4422303269463</v>
       </c>
       <c r="L43" t="n">
-        <v>447.4908946640223</v>
+        <v>247.4654658537285</v>
       </c>
       <c r="M43" t="n">
-        <v>600.7170521362266</v>
+        <v>521.9666402259495</v>
       </c>
       <c r="N43" t="n">
-        <v>753.5342915303028</v>
+        <v>772.483887754878</v>
       </c>
       <c r="O43" t="n">
-        <v>1005.042209876185</v>
+        <v>902.7167892007434</v>
       </c>
       <c r="P43" t="n">
-        <v>1216.469796422602</v>
+        <v>1114.14437574716</v>
       </c>
       <c r="Q43" t="n">
-        <v>1216.469796422602</v>
+        <v>1216.469796422604</v>
       </c>
       <c r="R43" t="n">
-        <v>1200.996772455547</v>
+        <v>1200.996772455549</v>
       </c>
       <c r="S43" t="n">
-        <v>1115.020941369832</v>
+        <v>1115.020941369834</v>
       </c>
       <c r="T43" t="n">
-        <v>1006.559230000225</v>
+        <v>1006.559230000227</v>
       </c>
       <c r="U43" t="n">
-        <v>843.1188902039077</v>
+        <v>843.1188902039096</v>
       </c>
       <c r="V43" t="n">
-        <v>706.1209767428597</v>
+        <v>706.1209767428614</v>
       </c>
       <c r="W43" t="n">
-        <v>543.7019662407882</v>
+        <v>543.7019662407898</v>
       </c>
       <c r="X43" t="n">
-        <v>436.1868931166934</v>
+        <v>436.1868931166948</v>
       </c>
       <c r="Y43" t="n">
-        <v>337.8891252894999</v>
+        <v>337.8891252895012</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1435.789553177358</v>
+        <v>1154.457331186876</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.593185490695</v>
+        <v>896.2609635002129</v>
       </c>
       <c r="D44" t="n">
-        <v>928.5066116984481</v>
+        <v>647.1743897079657</v>
       </c>
       <c r="E44" t="n">
-        <v>657.4582827850843</v>
+        <v>547.986544677501</v>
       </c>
       <c r="F44" t="n">
-        <v>367.0444830757842</v>
+        <v>257.5727449682007</v>
       </c>
       <c r="G44" t="n">
-        <v>75.18913225238352</v>
+        <v>257.5727449682007</v>
       </c>
       <c r="H44" t="n">
-        <v>75.18913225238352</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="I44" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J44" t="n">
-        <v>168.2509634005561</v>
+        <v>168.250963400556</v>
       </c>
       <c r="K44" t="n">
-        <v>472.1294420386279</v>
+        <v>472.1294420386278</v>
       </c>
       <c r="L44" t="n">
-        <v>899.0875724614706</v>
+        <v>899.0875724614705</v>
       </c>
       <c r="M44" t="n">
         <v>1380.310416942196</v>
@@ -7664,34 +7664,34 @@
         <v>2237.478527880638</v>
       </c>
       <c r="P44" t="n">
-        <v>2537.690056379758</v>
+        <v>2537.690056379757</v>
       </c>
       <c r="Q44" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="R44" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="S44" t="n">
-        <v>2686.232337941857</v>
+        <v>2634.390743108373</v>
       </c>
       <c r="T44" t="n">
-        <v>2686.232337941857</v>
+        <v>2536.007161677502</v>
       </c>
       <c r="U44" t="n">
-        <v>2686.232337941857</v>
+        <v>2404.900115951375</v>
       </c>
       <c r="V44" t="n">
-        <v>2472.990454818328</v>
+        <v>2191.658232827846</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.192915656458</v>
+        <v>1952.860693665976</v>
       </c>
       <c r="X44" t="n">
-        <v>1975.900166158481</v>
+        <v>1694.567944167999</v>
       </c>
       <c r="Y44" t="n">
-        <v>1706.095701714848</v>
+        <v>1424.763479724366</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>112.6889960601582</v>
       </c>
       <c r="I45" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J45" t="n">
-        <v>53.72464675883714</v>
+        <v>128.8423016805448</v>
       </c>
       <c r="K45" t="n">
-        <v>326.5069217449751</v>
+        <v>401.6245766666827</v>
       </c>
       <c r="L45" t="n">
-        <v>750.5398302471554</v>
+        <v>401.6245766666827</v>
       </c>
       <c r="M45" t="n">
-        <v>1303.502749027422</v>
+        <v>954.5874954469499</v>
       </c>
       <c r="N45" t="n">
         <v>1535.580600302081</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>278.0711475856493</v>
+        <v>278.0711475856505</v>
       </c>
       <c r="C46" t="n">
-        <v>232.1925690278591</v>
+        <v>232.1925690278601</v>
       </c>
       <c r="D46" t="n">
-        <v>202.8580668361513</v>
+        <v>202.8580668361521</v>
       </c>
       <c r="E46" t="n">
-        <v>174.5864435779996</v>
+        <v>174.5864435780002</v>
       </c>
       <c r="F46" t="n">
-        <v>145.8431795843061</v>
+        <v>145.8431795843066</v>
       </c>
       <c r="G46" t="n">
-        <v>100.890148723665</v>
+        <v>100.8901487236653</v>
       </c>
       <c r="H46" t="n">
-        <v>67.29381813417601</v>
+        <v>67.29381813417616</v>
       </c>
       <c r="I46" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J46" t="n">
-        <v>132.0283215010955</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="K46" t="n">
-        <v>211.142238461795</v>
+        <v>234.7172472269631</v>
       </c>
       <c r="L46" t="n">
-        <v>466.4404908885942</v>
+        <v>466.4404908885973</v>
       </c>
       <c r="M46" t="n">
-        <v>619.6666483607985</v>
+        <v>740.9416652608184</v>
       </c>
       <c r="N46" t="n">
-        <v>772.4838877548747</v>
+        <v>893.7589046548945</v>
       </c>
       <c r="O46" t="n">
-        <v>902.7167892007401</v>
+        <v>1023.99180610076</v>
       </c>
       <c r="P46" t="n">
-        <v>1114.144375747157</v>
+        <v>1114.14437574716</v>
       </c>
       <c r="Q46" t="n">
-        <v>1216.469796422601</v>
+        <v>1216.469796422604</v>
       </c>
       <c r="R46" t="n">
-        <v>1200.996772455546</v>
+        <v>1200.996772455549</v>
       </c>
       <c r="S46" t="n">
-        <v>1115.020941369831</v>
+        <v>1115.020941369834</v>
       </c>
       <c r="T46" t="n">
-        <v>1006.559230000224</v>
+        <v>1006.559230000227</v>
       </c>
       <c r="U46" t="n">
-        <v>843.1188902039072</v>
+        <v>843.1188902039095</v>
       </c>
       <c r="V46" t="n">
-        <v>706.1209767428593</v>
+        <v>706.1209767428613</v>
       </c>
       <c r="W46" t="n">
-        <v>543.7019662407879</v>
+        <v>543.7019662407897</v>
       </c>
       <c r="X46" t="n">
-        <v>436.1868931166932</v>
+        <v>436.1868931166947</v>
       </c>
       <c r="Y46" t="n">
-        <v>337.8891252894997</v>
+        <v>337.8891252895011</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L2" t="n">
-        <v>201.165459480069</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
         <v>196.9644755630518</v>
       </c>
       <c r="P2" t="n">
-        <v>197.8864878340879</v>
+        <v>197.4820563681108</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,25 +8055,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>113.0652504495981</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L3" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>125.4935813445713</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>116.7248198506397</v>
+        <v>116.3203883846626</v>
       </c>
       <c r="O3" t="n">
-        <v>125.4646959280654</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>118.8638848070747</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8140,19 +8140,19 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>119.1990467954604</v>
       </c>
       <c r="M4" t="n">
-        <v>122.8868782403605</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
-        <v>113.3497521949563</v>
+        <v>113.7541836609333</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P4" t="n">
-        <v>121.9136820728638</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8216,7 +8216,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L5" t="n">
         <v>191.5602121631146</v>
@@ -8225,16 +8225,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>196.4077929551615</v>
+        <v>196.0033614891845</v>
       </c>
       <c r="O5" t="n">
-        <v>196.5600440970748</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P5" t="n">
         <v>197.8864878340879</v>
       </c>
       <c r="Q5" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,13 +8295,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>122.005847949598</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1806808881021</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
@@ -8310,7 +8310,7 @@
         <v>125.8691273940425</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q6" t="n">
         <v>123.7448702278239</v>
@@ -8374,7 +8374,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L7" t="n">
         <v>109.5937994785061</v>
@@ -8386,10 +8386,10 @@
         <v>113.7541836609333</v>
       </c>
       <c r="O7" t="n">
-        <v>122.5056162750536</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P7" t="n">
-        <v>121.5092506068868</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8456,7 +8456,7 @@
         <v>190.7659506544006</v>
       </c>
       <c r="L8" t="n">
-        <v>203.0206155432522</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
@@ -8468,7 +8468,7 @@
         <v>198.8977434604743</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>199.3372124312941</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>123.9391158470206</v>
@@ -8544,10 +8544,10 @@
         <v>118.6580877480622</v>
       </c>
       <c r="O9" t="n">
-        <v>127.3198519912487</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>120.3146094042809</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8617,16 +8617,16 @@
         <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>123.9563408722598</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>77.47047077927544</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>185.2984168886724</v>
+        <v>261.7764871577739</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>57.14239494595567</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.16721520299868</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>77.47047077927544</v>
+        <v>77.47047077927543</v>
       </c>
       <c r="K15" t="n">
-        <v>68.26715661520279</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>252.9769327937146</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.1984754764681</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>568.551001735579</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>77.47047077927544</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>68.26715661520279</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>184.2575614020779</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1984754764681</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>584.367593540682</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9486,13 +9486,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>166.5290576304585</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>73.13348981520765</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.825599723696</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>77.47047077927544</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,16 +9726,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>184.2575614020779</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>255.4952080042385</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>79.16721520299868</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>77.47047077927544</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,10 +9963,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>184.2575614020774</v>
       </c>
       <c r="O27" t="n">
-        <v>159.5813649784634</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10191,16 +10191,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>68.26715661520275</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>442.0667091316076</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>184.2575614020779</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>464.6386954189393</v>
+        <v>270.7054365653341</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.16721520299865</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236956</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578756</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>77.47047077927542</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>446.9101916473198</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>169.0473328409822</v>
       </c>
       <c r="Q36" t="n">
         <v>79.16721520299865</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>77.47047077927542</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10908,19 +10908,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>446.9101916473198</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>73.1334898152069</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.16721520299865</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425143</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>77.47047077927542</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11148,10 +11148,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>270.7054365653341</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>73.1334898152069</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>77.47047077927542</v>
+        <v>153.3468898921114</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>53.77637970037554</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>270.7054365653341</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>265.9342661927008</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>248.8098620659707</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.275355453543</v>
       </c>
       <c r="H11" t="n">
         <v>221.148175365646</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>16.10257118544004</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>275.0483801413737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>274.9529621481728</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>287.6764037626064</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>306.8482198505835</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>183.7087692719705</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.41490258865652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.0483801413737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>179.8171480069556</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.083293454939849e-12</v>
       </c>
     </row>
     <row r="18">
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>170.1418790440694</v>
       </c>
       <c r="G41" t="n">
-        <v>180.5597765886592</v>
+        <v>288.9367973151668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.07634445028022</v>
+        <v>29.07634445028037</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.32317888514818</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>97.39974561656271</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>129.7959752688647</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>170.1418790440698</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>288.9367973151668</v>
       </c>
       <c r="H44" t="n">
-        <v>201.8096172272697</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.826503811669269</v>
+        <v>29.07634445028036</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.32317888514815</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>97.39974561656268</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>129.7959752688647</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675047.8861453648</v>
+        <v>675047.886145365</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692365.5649582809</v>
+        <v>692365.5649582808</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692365.5649582809</v>
+        <v>692365.5649582808</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767470.1723695471</v>
+        <v>767470.1723695473</v>
       </c>
       <c r="C2" t="n">
-        <v>767470.1723695473</v>
+        <v>767470.1723695475</v>
       </c>
       <c r="D2" t="n">
-        <v>767624.060494182</v>
+        <v>767624.0604941823</v>
       </c>
       <c r="E2" t="n">
         <v>705676.6824205229</v>
       </c>
       <c r="F2" t="n">
-        <v>705676.6824205234</v>
+        <v>705676.6824205235</v>
       </c>
       <c r="G2" t="n">
-        <v>767624.0604941817</v>
+        <v>767624.0604941819</v>
       </c>
       <c r="H2" t="n">
-        <v>767624.0604941818</v>
+        <v>767624.0604941824</v>
       </c>
       <c r="I2" t="n">
         <v>767624.0604941817</v>
       </c>
       <c r="J2" t="n">
-        <v>767624.0604941815</v>
+        <v>767624.0604941814</v>
       </c>
       <c r="K2" t="n">
-        <v>767624.0604941817</v>
+        <v>767624.0604941811</v>
       </c>
       <c r="L2" t="n">
         <v>767624.0604941824</v>
       </c>
       <c r="M2" t="n">
-        <v>767624.0604941817</v>
+        <v>767624.0604941818</v>
       </c>
       <c r="N2" t="n">
-        <v>767624.0604941817</v>
+        <v>767624.0604941818</v>
       </c>
       <c r="O2" t="n">
-        <v>728766.9208377455</v>
+        <v>728766.9208377459</v>
       </c>
       <c r="P2" t="n">
-        <v>728766.9208377459</v>
+        <v>728766.9208377461</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41703.91373122883</v>
+        <v>41703.91373122869</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="J3" t="n">
         <v>95912.81420634933</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42104.05378756574</v>
+        <v>42104.05378756562</v>
       </c>
       <c r="M3" t="n">
         <v>156190.3404853367</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>14592.18619412179</v>
+        <v>14592.18619412168</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392094.6976652483</v>
+        <v>392094.6976652482</v>
       </c>
       <c r="C4" t="n">
-        <v>392094.6976652483</v>
+        <v>392094.6976652482</v>
       </c>
       <c r="D4" t="n">
         <v>391922.2274344394</v>
@@ -26430,16 +26430,16 @@
         <v>253173.0268599304</v>
       </c>
       <c r="G4" t="n">
-        <v>288295.1687466134</v>
+        <v>288295.1687466132</v>
       </c>
       <c r="H4" t="n">
-        <v>288295.1687466133</v>
+        <v>288295.1687466132</v>
       </c>
       <c r="I4" t="n">
-        <v>288295.1687466133</v>
+        <v>288295.1687466132</v>
       </c>
       <c r="J4" t="n">
-        <v>289343.2593763362</v>
+        <v>289343.2593763361</v>
       </c>
       <c r="K4" t="n">
         <v>289343.2593763361</v>
@@ -26454,10 +26454,10 @@
         <v>288295.1687466133</v>
       </c>
       <c r="O4" t="n">
-        <v>266254.7504161801</v>
+        <v>266254.75041618</v>
       </c>
       <c r="P4" t="n">
-        <v>266254.7504161801</v>
+        <v>266254.75041618</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>52248.04112749937</v>
       </c>
       <c r="F5" t="n">
-        <v>52248.04112749938</v>
+        <v>52248.04112749939</v>
       </c>
       <c r="G5" t="n">
-        <v>56630.54903183773</v>
+        <v>56630.54903183772</v>
       </c>
       <c r="H5" t="n">
-        <v>56630.54903183773</v>
+        <v>56630.54903183772</v>
       </c>
       <c r="I5" t="n">
         <v>56630.54903183773</v>
@@ -26494,22 +26494,22 @@
         <v>64440.52471011579</v>
       </c>
       <c r="K5" t="n">
-        <v>64440.52471011579</v>
+        <v>64440.52471011578</v>
       </c>
       <c r="L5" t="n">
         <v>64365.03123994773</v>
       </c>
       <c r="M5" t="n">
-        <v>56630.54903183773</v>
+        <v>56630.54903183772</v>
       </c>
       <c r="N5" t="n">
         <v>56630.54903183773</v>
       </c>
       <c r="O5" t="n">
-        <v>53873.81437163455</v>
+        <v>53873.81437163454</v>
       </c>
       <c r="P5" t="n">
-        <v>53873.81437163456</v>
+        <v>53873.81437163454</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337784.8126515243</v>
+        <v>337784.427931213</v>
       </c>
       <c r="C6" t="n">
-        <v>341139.2862342968</v>
+        <v>341138.9015139855</v>
       </c>
       <c r="D6" t="n">
-        <v>340747.5708946008</v>
+        <v>340747.570894601</v>
       </c>
       <c r="E6" t="n">
-        <v>19631.11298422247</v>
+        <v>19476.24453903832</v>
       </c>
       <c r="F6" t="n">
-        <v>400255.6144330936</v>
+        <v>400100.7459879096</v>
       </c>
       <c r="G6" t="n">
-        <v>380994.4289845018</v>
+        <v>380994.4289845023</v>
       </c>
       <c r="H6" t="n">
-        <v>422698.3427157309</v>
+        <v>422698.3427157315</v>
       </c>
       <c r="I6" t="n">
         <v>422698.3427157307</v>
       </c>
       <c r="J6" t="n">
-        <v>317927.4622013802</v>
+        <v>317927.4622013801</v>
       </c>
       <c r="K6" t="n">
-        <v>413840.2764077298</v>
+        <v>413840.2764077292</v>
       </c>
       <c r="L6" t="n">
-        <v>371822.0708736906</v>
+        <v>371822.0708736908</v>
       </c>
       <c r="M6" t="n">
-        <v>266508.0022303939</v>
+        <v>266508.0022303941</v>
       </c>
       <c r="N6" t="n">
         <v>422698.3427157307</v>
       </c>
       <c r="O6" t="n">
-        <v>394046.169855809</v>
+        <v>393949.0270066685</v>
       </c>
       <c r="P6" t="n">
-        <v>408638.3560499312</v>
+        <v>408541.2132007905</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>103.1614589323478</v>
       </c>
       <c r="G2" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H2" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I2" t="n">
         <v>155.2913510963838</v>
@@ -26716,16 +26716,16 @@
         <v>103.661634002769</v>
       </c>
       <c r="M2" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="N2" t="n">
         <v>155.2913510963838</v>
       </c>
       <c r="O2" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="P2" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.9004082476891</v>
+        <v>125.9004082476892</v>
       </c>
       <c r="F3" t="n">
         <v>125.9004082476892</v>
       </c>
       <c r="G3" t="n">
-        <v>125.9004082476892</v>
+        <v>125.9004082476893</v>
       </c>
       <c r="H3" t="n">
-        <v>125.9004082476892</v>
+        <v>125.9004082476893</v>
       </c>
       <c r="I3" t="n">
-        <v>125.9004082476892</v>
+        <v>125.9004082476893</v>
       </c>
       <c r="J3" t="n">
-        <v>125.9004082476892</v>
+        <v>125.9004082476894</v>
       </c>
       <c r="K3" t="n">
         <v>125.9004082476893</v>
@@ -26799,10 +26799,10 @@
         <v>671.5580844854638</v>
       </c>
       <c r="F4" t="n">
-        <v>671.558084485464</v>
+        <v>671.5580844854641</v>
       </c>
       <c r="G4" t="n">
-        <v>671.558084485464</v>
+        <v>671.5580844854641</v>
       </c>
       <c r="H4" t="n">
         <v>671.5580844854641</v>
@@ -26814,10 +26814,10 @@
         <v>872.0923539363918</v>
       </c>
       <c r="K4" t="n">
-        <v>872.0923539363918</v>
+        <v>872.0923539363916</v>
       </c>
       <c r="L4" t="n">
-        <v>870.1590860389692</v>
+        <v>870.1590860389691</v>
       </c>
       <c r="M4" t="n">
         <v>671.5580844854641</v>
@@ -26829,7 +26829,7 @@
         <v>671.5580844854642</v>
       </c>
       <c r="P4" t="n">
-        <v>671.5580844854642</v>
+        <v>671.5580844854641</v>
       </c>
     </row>
   </sheetData>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.12989216403604</v>
+        <v>52.12989216403587</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="J2" t="n">
         <v>51.03156676831189</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.63006723445717</v>
+        <v>52.63006723445702</v>
       </c>
       <c r="M2" t="n">
-        <v>51.62971709361473</v>
+        <v>51.62971709361472</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>18.24023274265224</v>
+        <v>18.2402327426521</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.9004082476891</v>
+        <v>125.9004082476892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.0141362516048</v>
+        <v>461.0141362516049</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.12989216403604</v>
+        <v>52.12989216403587</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>51.03156676831189</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27442,7 +27442,7 @@
         <v>350.093055768969</v>
       </c>
       <c r="X2" t="n">
-        <v>368.2001602907902</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27458,7 +27458,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>150.0769572485235</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -27473,7 +27473,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27506,16 +27506,16 @@
         <v>49.17674743307231</v>
       </c>
       <c r="S3" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>177.9817277236687</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>207.493319405667</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.33544286084191</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R4" t="n">
-        <v>138.0168847888342</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>222.030638580472</v>
       </c>
       <c r="U4" t="n">
-        <v>274.3086583328597</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>162.272501731286</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>79.72222485617382</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>242.3268041402145</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.8155695705169</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -27710,7 +27710,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27746,7 +27746,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -27758,7 +27758,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9032899255301</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27819,25 +27819,25 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>275.5018120437852</v>
       </c>
       <c r="V7" t="n">
-        <v>248.1182726142302</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>273.2851586848435</v>
       </c>
       <c r="X7" t="n">
-        <v>218.9302606806466</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27862,7 +27862,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>399.4903313468757</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>173.4137389355957</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>210.172410125945</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,7 +27913,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>346.9666341606211</v>
+        <v>358.3999121878506</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145.8823016730944</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>149.5672885953991</v>
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>121.4039133892705</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>139.3285454370332</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>183.9948715606295</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>199.6297182899954</v>
+        <v>201.0533175342936</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,10 +28068,10 @@
         <v>272.3753904354372</v>
       </c>
       <c r="V10" t="n">
-        <v>247.6086039611059</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>271.351890787421</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.93857089703924</v>
+        <v>57.93857089703923</v>
       </c>
       <c r="S11" t="n">
         <v>103.1614589323478</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.93857089703923</v>
+        <v>57.93857089703922</v>
       </c>
       <c r="S14" t="n">
         <v>103.1614589323478</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="E17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="F17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="G17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I17" t="n">
         <v>151.5763615210043</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.93857089703923</v>
+        <v>57.93857089703921</v>
       </c>
       <c r="S17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y17" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H19" t="n">
-        <v>118.4987158602637</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I19" t="n">
         <v>135.9334967323096</v>
       </c>
       <c r="J19" t="n">
-        <v>43.40539611894805</v>
+        <v>43.40539611894803</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.14100628744679</v>
+        <v>19.14100628744677</v>
       </c>
       <c r="R19" t="n">
         <v>137.8183107981087</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2913510963839</v>
+        <v>118.4987158602653</v>
       </c>
       <c r="T19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.2913510963839</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="E20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="F20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="G20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I20" t="n">
         <v>151.5763615210043</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.93857089703923</v>
+        <v>57.93857089703921</v>
       </c>
       <c r="S20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,16 +28971,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H22" t="n">
-        <v>118.4987158602645</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I22" t="n">
         <v>135.9334967323096</v>
       </c>
       <c r="J22" t="n">
-        <v>43.40539611894805</v>
+        <v>43.40539611894803</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.14100628744679</v>
+        <v>19.14100628744677</v>
       </c>
       <c r="R22" t="n">
         <v>137.8183107981087</v>
       </c>
       <c r="S22" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602653</v>
       </c>
       <c r="T22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="23">
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.93857089703923</v>
+        <v>57.93857089703921</v>
       </c>
       <c r="S23" t="n">
         <v>155.2913510963838</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>133.3042194758082</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>155.2913510963838</v>
@@ -29217,7 +29217,7 @@
         <v>135.9334967323096</v>
       </c>
       <c r="J25" t="n">
-        <v>43.40539611894805</v>
+        <v>43.40539611894803</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>19.14100628744677</v>
       </c>
       <c r="R25" t="n">
         <v>137.8183107981087</v>
@@ -29256,7 +29256,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="W25" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602645</v>
       </c>
       <c r="X25" t="n">
         <v>155.2913510963838</v>
@@ -29296,7 +29296,7 @@
         <v>103.1614589323478</v>
       </c>
       <c r="J26" t="n">
-        <v>26.68158251667792</v>
+        <v>26.68158251667623</v>
       </c>
       <c r="K26" t="n">
         <v>103.1614589323478</v>
@@ -29542,7 +29542,7 @@
         <v>103.1614589323478</v>
       </c>
       <c r="M29" t="n">
-        <v>26.68158251667694</v>
+        <v>26.68158251667649</v>
       </c>
       <c r="N29" t="n">
         <v>103.1614589323478</v>
@@ -29773,13 +29773,13 @@
         <v>103.661634002769</v>
       </c>
       <c r="K32" t="n">
-        <v>15.02522219785675</v>
+        <v>103.661634002769</v>
       </c>
       <c r="L32" t="n">
         <v>103.661634002769</v>
       </c>
       <c r="M32" t="n">
-        <v>103.661634002769</v>
+        <v>15.02522219785618</v>
       </c>
       <c r="N32" t="n">
         <v>103.661634002769</v>
@@ -29943,13 +29943,13 @@
         <v>103.661634002769</v>
       </c>
       <c r="O34" t="n">
-        <v>103.661634002769</v>
+        <v>91.49494303358543</v>
       </c>
       <c r="P34" t="n">
         <v>103.661634002769</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.49494303358573</v>
+        <v>103.661634002769</v>
       </c>
       <c r="R34" t="n">
         <v>103.661634002769</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="E35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="F35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="G35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I35" t="n">
         <v>151.5763615210043</v>
@@ -30034,25 +30034,25 @@
         <v>57.93857089703921</v>
       </c>
       <c r="S35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I37" t="n">
         <v>135.9334967323096</v>
@@ -30192,25 +30192,25 @@
         <v>137.8183107981087</v>
       </c>
       <c r="S37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X37" t="n">
-        <v>118.4987158602645</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602653</v>
       </c>
     </row>
     <row r="38">
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.14100628744677</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.8183107981087</v>
@@ -30432,7 +30432,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="T40" t="n">
-        <v>155.2913510963838</v>
+        <v>137.6397221477112</v>
       </c>
       <c r="U40" t="n">
         <v>155.2913510963838</v>
@@ -30444,7 +30444,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="X40" t="n">
-        <v>118.4987158602645</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="Y40" t="n">
         <v>155.2913510963838</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="C41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="D41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="E41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="F41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="G41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="H41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="I41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>57.93857089703921</v>
       </c>
       <c r="S41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="T41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="U41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="V41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="W41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="X41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="C43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="D43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="E43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="F43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="G43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="H43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="I43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="J43" t="n">
-        <v>122.5000170707241</v>
+        <v>43.40539611894803</v>
       </c>
       <c r="K43" t="n">
-        <v>122.5000170707241</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4512496646651414</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>122.500017070724</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>98.68687690389126</v>
       </c>
       <c r="O43" t="n">
-        <v>122.5000170707241</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.14100628744677</v>
+        <v>122.500017070724</v>
       </c>
       <c r="R43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="S43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="T43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="U43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="V43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="W43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="X43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.5000170707241</v>
+        <v>122.500017070724</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="C44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="D44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="E44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="F44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="G44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="H44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="I44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>57.93857089703921</v>
       </c>
       <c r="S44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="T44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="U44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="V44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="W44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="X44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="Y44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
     </row>
     <row r="45">
@@ -30852,40 +30852,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="C46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="D46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="E46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="F46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="G46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="H46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="J46" t="n">
-        <v>122.5000170707242</v>
+        <v>43.40539611894803</v>
       </c>
       <c r="K46" t="n">
-        <v>19.59225595211146</v>
+        <v>122.500017070724</v>
       </c>
       <c r="L46" t="n">
-        <v>122.5000170707242</v>
+        <v>98.68687690389095</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>122.500017070724</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>122.5000170707242</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="R46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="S46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="T46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="U46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="V46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="W46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="X46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.500017070724</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5061322944630715</v>
+        <v>0.5061322944630716</v>
       </c>
       <c r="H11" t="n">
         <v>5.183427360669933</v>
@@ -31762,31 +31762,31 @@
         <v>42.95734582718516</v>
       </c>
       <c r="K11" t="n">
-        <v>64.38192585180698</v>
+        <v>64.381925851807</v>
       </c>
       <c r="L11" t="n">
-        <v>79.87147205848123</v>
+        <v>79.87147205848125</v>
       </c>
       <c r="M11" t="n">
-        <v>88.87240225013888</v>
+        <v>88.87240225013889</v>
       </c>
       <c r="N11" t="n">
-        <v>90.31045063178209</v>
+        <v>90.3104506317821</v>
       </c>
       <c r="O11" t="n">
-        <v>85.27759762871491</v>
+        <v>85.27759762871493</v>
       </c>
       <c r="P11" t="n">
-        <v>72.78245660915782</v>
+        <v>72.78245660915783</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.65659381369905</v>
+        <v>54.65659381369906</v>
       </c>
       <c r="R11" t="n">
         <v>31.79333274206595</v>
       </c>
       <c r="S11" t="n">
-        <v>11.53348966007725</v>
+        <v>11.53348966007726</v>
       </c>
       <c r="T11" t="n">
         <v>2.215594119012097</v>
@@ -31835,16 +31835,16 @@
         <v>2.615402820390675</v>
       </c>
       <c r="I12" t="n">
-        <v>9.323756648531697</v>
+        <v>9.323756648531699</v>
       </c>
       <c r="J12" t="n">
         <v>25.58510088739125</v>
       </c>
       <c r="K12" t="n">
-        <v>43.72901255146388</v>
+        <v>43.72901255146389</v>
       </c>
       <c r="L12" t="n">
-        <v>58.79905387077218</v>
+        <v>58.79905387077219</v>
       </c>
       <c r="M12" t="n">
         <v>68.61572249499058</v>
@@ -31856,7 +31856,7 @@
         <v>64.4313155303056</v>
       </c>
       <c r="P12" t="n">
-        <v>51.71181107818764</v>
+        <v>51.71181107818765</v>
       </c>
       <c r="Q12" t="n">
         <v>34.56797624189382</v>
@@ -31868,7 +31868,7 @@
         <v>5.030077631405313</v>
       </c>
       <c r="T12" t="n">
-        <v>1.091532784713455</v>
+        <v>1.091532784713456</v>
       </c>
       <c r="U12" t="n">
         <v>0.01781609550674847</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2270335230696033</v>
+        <v>0.2270335230696034</v>
       </c>
       <c r="H13" t="n">
         <v>2.018534414200657</v>
       </c>
       <c r="I13" t="n">
-        <v>6.827517221038619</v>
+        <v>6.82751722103862</v>
       </c>
       <c r="J13" t="n">
         <v>16.05127008102096</v>
       </c>
       <c r="K13" t="n">
-        <v>26.37716749845027</v>
+        <v>26.37716749845028</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75369305709358</v>
+        <v>33.75369305709359</v>
       </c>
       <c r="M13" t="n">
         <v>35.58853671171973</v>
       </c>
       <c r="N13" t="n">
-        <v>34.74232085300578</v>
+        <v>34.74232085300579</v>
       </c>
       <c r="O13" t="n">
-        <v>32.09015651532903</v>
+        <v>32.09015651532904</v>
       </c>
       <c r="P13" t="n">
         <v>27.45867264470911</v>
@@ -31947,7 +31947,7 @@
         <v>3.956575124767541</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9700523258428504</v>
+        <v>0.9700523258428505</v>
       </c>
       <c r="U13" t="n">
         <v>0.01238364671288747</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5061322944630716</v>
+        <v>0.5061322944630718</v>
       </c>
       <c r="H14" t="n">
-        <v>5.183427360669933</v>
+        <v>5.183427360669936</v>
       </c>
       <c r="I14" t="n">
-        <v>19.51266528228759</v>
+        <v>19.5126652822876</v>
       </c>
       <c r="J14" t="n">
-        <v>42.95734582718516</v>
+        <v>42.95734582718518</v>
       </c>
       <c r="K14" t="n">
-        <v>64.381925851807</v>
+        <v>64.38192585180703</v>
       </c>
       <c r="L14" t="n">
-        <v>79.87147205848125</v>
+        <v>79.87147205848127</v>
       </c>
       <c r="M14" t="n">
-        <v>88.87240225013889</v>
+        <v>88.87240225013893</v>
       </c>
       <c r="N14" t="n">
-        <v>90.3104506317821</v>
+        <v>90.31045063178213</v>
       </c>
       <c r="O14" t="n">
-        <v>85.27759762871493</v>
+        <v>85.27759762871496</v>
       </c>
       <c r="P14" t="n">
-        <v>72.78245660915783</v>
+        <v>72.78245660915786</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.65659381369906</v>
+        <v>54.65659381369909</v>
       </c>
       <c r="R14" t="n">
-        <v>31.79333274206595</v>
+        <v>31.79333274206596</v>
       </c>
       <c r="S14" t="n">
         <v>11.53348966007726</v>
       </c>
       <c r="T14" t="n">
-        <v>2.215594119012097</v>
+        <v>2.215594119012098</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04049058355704572</v>
+        <v>0.04049058355704574</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2708046517025767</v>
+        <v>0.2708046517025768</v>
       </c>
       <c r="H15" t="n">
-        <v>2.615402820390675</v>
+        <v>2.615402820390676</v>
       </c>
       <c r="I15" t="n">
-        <v>9.323756648531699</v>
+        <v>9.323756648531702</v>
       </c>
       <c r="J15" t="n">
-        <v>25.58510088739125</v>
+        <v>25.58510088739126</v>
       </c>
       <c r="K15" t="n">
-        <v>43.72901255146389</v>
+        <v>43.72901255146391</v>
       </c>
       <c r="L15" t="n">
-        <v>58.79905387077219</v>
+        <v>58.79905387077222</v>
       </c>
       <c r="M15" t="n">
-        <v>68.61572249499058</v>
+        <v>68.61572249499061</v>
       </c>
       <c r="N15" t="n">
-        <v>70.43177649697849</v>
+        <v>70.43177649697851</v>
       </c>
       <c r="O15" t="n">
-        <v>64.4313155303056</v>
+        <v>64.43131553030562</v>
       </c>
       <c r="P15" t="n">
-        <v>51.71181107818765</v>
+        <v>51.71181107818767</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.56797624189382</v>
+        <v>34.56797624189385</v>
       </c>
       <c r="R15" t="n">
-        <v>16.81364319956876</v>
+        <v>16.81364319956877</v>
       </c>
       <c r="S15" t="n">
-        <v>5.030077631405313</v>
+        <v>5.030077631405316</v>
       </c>
       <c r="T15" t="n">
         <v>1.091532784713456</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01781609550674847</v>
+        <v>0.01781609550674848</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2270335230696034</v>
+        <v>0.2270335230696035</v>
       </c>
       <c r="H16" t="n">
-        <v>2.018534414200657</v>
+        <v>2.018534414200658</v>
       </c>
       <c r="I16" t="n">
-        <v>6.82751722103862</v>
+        <v>6.827517221038623</v>
       </c>
       <c r="J16" t="n">
-        <v>16.05127008102096</v>
+        <v>16.05127008102097</v>
       </c>
       <c r="K16" t="n">
-        <v>26.37716749845028</v>
+        <v>26.37716749845029</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75369305709359</v>
+        <v>33.7536930570936</v>
       </c>
       <c r="M16" t="n">
-        <v>35.58853671171973</v>
+        <v>35.58853671171975</v>
       </c>
       <c r="N16" t="n">
-        <v>34.74232085300579</v>
+        <v>34.7423208530058</v>
       </c>
       <c r="O16" t="n">
-        <v>32.09015651532904</v>
+        <v>32.09015651532906</v>
       </c>
       <c r="P16" t="n">
-        <v>27.45867264470911</v>
+        <v>27.45867264470912</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.01096164540106</v>
+        <v>19.01096164540107</v>
       </c>
       <c r="R16" t="n">
         <v>10.20825277365689</v>
       </c>
       <c r="S16" t="n">
-        <v>3.956575124767541</v>
+        <v>3.956575124767543</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9700523258428505</v>
+        <v>0.9700523258428509</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01238364671288747</v>
+        <v>0.01238364671288748</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5061322944630716</v>
+        <v>0.506132294463072</v>
       </c>
       <c r="H17" t="n">
-        <v>5.183427360669933</v>
+        <v>5.183427360669937</v>
       </c>
       <c r="I17" t="n">
-        <v>19.51266528228759</v>
+        <v>19.5126652822876</v>
       </c>
       <c r="J17" t="n">
-        <v>42.95734582718516</v>
+        <v>42.95734582718519</v>
       </c>
       <c r="K17" t="n">
-        <v>64.381925851807</v>
+        <v>64.38192585180704</v>
       </c>
       <c r="L17" t="n">
-        <v>79.87147205848125</v>
+        <v>79.8714720584813</v>
       </c>
       <c r="M17" t="n">
-        <v>88.87240225013889</v>
+        <v>88.87240225013896</v>
       </c>
       <c r="N17" t="n">
-        <v>90.3104506317821</v>
+        <v>90.31045063178217</v>
       </c>
       <c r="O17" t="n">
-        <v>85.27759762871493</v>
+        <v>85.27759762871499</v>
       </c>
       <c r="P17" t="n">
-        <v>72.78245660915783</v>
+        <v>72.78245660915789</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.65659381369906</v>
+        <v>54.6565938136991</v>
       </c>
       <c r="R17" t="n">
-        <v>31.79333274206595</v>
+        <v>31.79333274206597</v>
       </c>
       <c r="S17" t="n">
-        <v>11.53348966007726</v>
+        <v>11.53348966007727</v>
       </c>
       <c r="T17" t="n">
-        <v>2.215594119012097</v>
+        <v>2.215594119012099</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04049058355704572</v>
+        <v>0.04049058355704575</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2708046517025767</v>
+        <v>0.2708046517025769</v>
       </c>
       <c r="H18" t="n">
-        <v>2.615402820390675</v>
+        <v>2.615402820390677</v>
       </c>
       <c r="I18" t="n">
-        <v>9.323756648531699</v>
+        <v>9.323756648531706</v>
       </c>
       <c r="J18" t="n">
-        <v>25.58510088739125</v>
+        <v>25.58510088739127</v>
       </c>
       <c r="K18" t="n">
-        <v>43.72901255146389</v>
+        <v>43.72901255146392</v>
       </c>
       <c r="L18" t="n">
-        <v>58.79905387077219</v>
+        <v>58.79905387077224</v>
       </c>
       <c r="M18" t="n">
-        <v>68.61572249499058</v>
+        <v>68.61572249499064</v>
       </c>
       <c r="N18" t="n">
-        <v>70.43177649697849</v>
+        <v>70.43177649697854</v>
       </c>
       <c r="O18" t="n">
-        <v>64.4313155303056</v>
+        <v>64.43131553030565</v>
       </c>
       <c r="P18" t="n">
-        <v>51.71181107818765</v>
+        <v>51.71181107818769</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.56797624189382</v>
+        <v>34.56797624189385</v>
       </c>
       <c r="R18" t="n">
-        <v>16.81364319956876</v>
+        <v>16.81364319956877</v>
       </c>
       <c r="S18" t="n">
-        <v>5.030077631405313</v>
+        <v>5.030077631405318</v>
       </c>
       <c r="T18" t="n">
         <v>1.091532784713456</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01781609550674847</v>
+        <v>0.01781609550674849</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2270335230696034</v>
+        <v>0.2270335230696036</v>
       </c>
       <c r="H19" t="n">
-        <v>2.018534414200657</v>
+        <v>2.018534414200658</v>
       </c>
       <c r="I19" t="n">
-        <v>6.82751722103862</v>
+        <v>6.827517221038625</v>
       </c>
       <c r="J19" t="n">
-        <v>16.05127008102096</v>
+        <v>16.05127008102097</v>
       </c>
       <c r="K19" t="n">
-        <v>26.37716749845028</v>
+        <v>26.3771674984503</v>
       </c>
       <c r="L19" t="n">
-        <v>33.75369305709359</v>
+        <v>33.75369305709361</v>
       </c>
       <c r="M19" t="n">
-        <v>35.58853671171973</v>
+        <v>35.58853671171976</v>
       </c>
       <c r="N19" t="n">
-        <v>34.74232085300579</v>
+        <v>34.74232085300581</v>
       </c>
       <c r="O19" t="n">
-        <v>32.09015651532904</v>
+        <v>32.09015651532907</v>
       </c>
       <c r="P19" t="n">
-        <v>27.45867264470911</v>
+        <v>27.45867264470913</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.01096164540106</v>
+        <v>19.01096164540108</v>
       </c>
       <c r="R19" t="n">
-        <v>10.20825277365689</v>
+        <v>10.2082527736569</v>
       </c>
       <c r="S19" t="n">
-        <v>3.956575124767541</v>
+        <v>3.956575124767544</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9700523258428505</v>
+        <v>0.9700523258428513</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01238364671288747</v>
+        <v>0.01238364671288748</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5061322944630716</v>
+        <v>0.506132294463072</v>
       </c>
       <c r="H20" t="n">
-        <v>5.183427360669933</v>
+        <v>5.183427360669937</v>
       </c>
       <c r="I20" t="n">
-        <v>19.51266528228759</v>
+        <v>19.5126652822876</v>
       </c>
       <c r="J20" t="n">
-        <v>42.95734582718516</v>
+        <v>42.95734582718519</v>
       </c>
       <c r="K20" t="n">
-        <v>64.381925851807</v>
+        <v>64.38192585180704</v>
       </c>
       <c r="L20" t="n">
-        <v>79.87147205848125</v>
+        <v>79.8714720584813</v>
       </c>
       <c r="M20" t="n">
-        <v>88.87240225013889</v>
+        <v>88.87240225013896</v>
       </c>
       <c r="N20" t="n">
-        <v>90.3104506317821</v>
+        <v>90.31045063178217</v>
       </c>
       <c r="O20" t="n">
-        <v>85.27759762871493</v>
+        <v>85.27759762871499</v>
       </c>
       <c r="P20" t="n">
-        <v>72.78245660915783</v>
+        <v>72.78245660915789</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.65659381369906</v>
+        <v>54.6565938136991</v>
       </c>
       <c r="R20" t="n">
-        <v>31.79333274206595</v>
+        <v>31.79333274206597</v>
       </c>
       <c r="S20" t="n">
-        <v>11.53348966007726</v>
+        <v>11.53348966007727</v>
       </c>
       <c r="T20" t="n">
-        <v>2.215594119012097</v>
+        <v>2.215594119012099</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04049058355704572</v>
+        <v>0.04049058355704575</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2708046517025767</v>
+        <v>0.2708046517025769</v>
       </c>
       <c r="H21" t="n">
-        <v>2.615402820390675</v>
+        <v>2.615402820390677</v>
       </c>
       <c r="I21" t="n">
-        <v>9.323756648531699</v>
+        <v>9.323756648531706</v>
       </c>
       <c r="J21" t="n">
-        <v>25.58510088739125</v>
+        <v>25.58510088739127</v>
       </c>
       <c r="K21" t="n">
-        <v>43.72901255146389</v>
+        <v>43.72901255146392</v>
       </c>
       <c r="L21" t="n">
-        <v>58.79905387077219</v>
+        <v>58.79905387077224</v>
       </c>
       <c r="M21" t="n">
-        <v>68.61572249499058</v>
+        <v>68.61572249499064</v>
       </c>
       <c r="N21" t="n">
-        <v>70.43177649697849</v>
+        <v>70.43177649697854</v>
       </c>
       <c r="O21" t="n">
-        <v>64.4313155303056</v>
+        <v>64.43131553030565</v>
       </c>
       <c r="P21" t="n">
-        <v>51.71181107818765</v>
+        <v>51.71181107818769</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.56797624189382</v>
+        <v>34.56797624189385</v>
       </c>
       <c r="R21" t="n">
-        <v>16.81364319956876</v>
+        <v>16.81364319956877</v>
       </c>
       <c r="S21" t="n">
-        <v>5.030077631405313</v>
+        <v>5.030077631405318</v>
       </c>
       <c r="T21" t="n">
         <v>1.091532784713456</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01781609550674847</v>
+        <v>0.01781609550674849</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2270335230696034</v>
+        <v>0.2270335230696036</v>
       </c>
       <c r="H22" t="n">
-        <v>2.018534414200657</v>
+        <v>2.018534414200658</v>
       </c>
       <c r="I22" t="n">
-        <v>6.82751722103862</v>
+        <v>6.827517221038625</v>
       </c>
       <c r="J22" t="n">
-        <v>16.05127008102096</v>
+        <v>16.05127008102097</v>
       </c>
       <c r="K22" t="n">
-        <v>26.37716749845028</v>
+        <v>26.3771674984503</v>
       </c>
       <c r="L22" t="n">
-        <v>33.75369305709359</v>
+        <v>33.75369305709361</v>
       </c>
       <c r="M22" t="n">
-        <v>35.58853671171973</v>
+        <v>35.58853671171976</v>
       </c>
       <c r="N22" t="n">
-        <v>34.74232085300579</v>
+        <v>34.74232085300581</v>
       </c>
       <c r="O22" t="n">
-        <v>32.09015651532904</v>
+        <v>32.09015651532907</v>
       </c>
       <c r="P22" t="n">
-        <v>27.45867264470911</v>
+        <v>27.45867264470913</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.01096164540106</v>
+        <v>19.01096164540108</v>
       </c>
       <c r="R22" t="n">
-        <v>10.20825277365689</v>
+        <v>10.2082527736569</v>
       </c>
       <c r="S22" t="n">
-        <v>3.956575124767541</v>
+        <v>3.956575124767544</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9700523258428505</v>
+        <v>0.9700523258428513</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01238364671288747</v>
+        <v>0.01238364671288748</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5061322944630716</v>
+        <v>0.506132294463072</v>
       </c>
       <c r="H23" t="n">
-        <v>5.183427360669933</v>
+        <v>5.183427360669937</v>
       </c>
       <c r="I23" t="n">
-        <v>19.51266528228759</v>
+        <v>19.5126652822876</v>
       </c>
       <c r="J23" t="n">
-        <v>42.95734582718516</v>
+        <v>42.95734582718519</v>
       </c>
       <c r="K23" t="n">
-        <v>64.381925851807</v>
+        <v>64.38192585180704</v>
       </c>
       <c r="L23" t="n">
-        <v>79.87147205848125</v>
+        <v>79.8714720584813</v>
       </c>
       <c r="M23" t="n">
-        <v>88.87240225013889</v>
+        <v>88.87240225013896</v>
       </c>
       <c r="N23" t="n">
-        <v>90.3104506317821</v>
+        <v>90.31045063178217</v>
       </c>
       <c r="O23" t="n">
-        <v>85.27759762871493</v>
+        <v>85.27759762871499</v>
       </c>
       <c r="P23" t="n">
-        <v>72.78245660915783</v>
+        <v>72.78245660915789</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.65659381369906</v>
+        <v>54.6565938136991</v>
       </c>
       <c r="R23" t="n">
-        <v>31.79333274206595</v>
+        <v>31.79333274206597</v>
       </c>
       <c r="S23" t="n">
-        <v>11.53348966007726</v>
+        <v>11.53348966007727</v>
       </c>
       <c r="T23" t="n">
-        <v>2.215594119012097</v>
+        <v>2.215594119012099</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04049058355704572</v>
+        <v>0.04049058355704575</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2708046517025767</v>
+        <v>0.2708046517025769</v>
       </c>
       <c r="H24" t="n">
-        <v>2.615402820390675</v>
+        <v>2.615402820390677</v>
       </c>
       <c r="I24" t="n">
-        <v>9.323756648531699</v>
+        <v>9.323756648531706</v>
       </c>
       <c r="J24" t="n">
-        <v>25.58510088739125</v>
+        <v>25.58510088739127</v>
       </c>
       <c r="K24" t="n">
-        <v>43.72901255146389</v>
+        <v>43.72901255146392</v>
       </c>
       <c r="L24" t="n">
-        <v>58.79905387077219</v>
+        <v>58.79905387077224</v>
       </c>
       <c r="M24" t="n">
-        <v>68.61572249499058</v>
+        <v>68.61572249499064</v>
       </c>
       <c r="N24" t="n">
-        <v>70.43177649697849</v>
+        <v>70.43177649697854</v>
       </c>
       <c r="O24" t="n">
-        <v>64.4313155303056</v>
+        <v>64.43131553030565</v>
       </c>
       <c r="P24" t="n">
-        <v>51.71181107818765</v>
+        <v>51.71181107818769</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.56797624189382</v>
+        <v>34.56797624189385</v>
       </c>
       <c r="R24" t="n">
-        <v>16.81364319956876</v>
+        <v>16.81364319956877</v>
       </c>
       <c r="S24" t="n">
-        <v>5.030077631405313</v>
+        <v>5.030077631405318</v>
       </c>
       <c r="T24" t="n">
         <v>1.091532784713456</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01781609550674847</v>
+        <v>0.01781609550674849</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2270335230696034</v>
+        <v>0.2270335230696036</v>
       </c>
       <c r="H25" t="n">
-        <v>2.018534414200657</v>
+        <v>2.018534414200658</v>
       </c>
       <c r="I25" t="n">
-        <v>6.82751722103862</v>
+        <v>6.827517221038625</v>
       </c>
       <c r="J25" t="n">
-        <v>16.05127008102096</v>
+        <v>16.05127008102097</v>
       </c>
       <c r="K25" t="n">
-        <v>26.37716749845028</v>
+        <v>26.3771674984503</v>
       </c>
       <c r="L25" t="n">
-        <v>33.75369305709359</v>
+        <v>33.75369305709361</v>
       </c>
       <c r="M25" t="n">
-        <v>35.58853671171973</v>
+        <v>35.58853671171976</v>
       </c>
       <c r="N25" t="n">
-        <v>34.74232085300579</v>
+        <v>34.74232085300581</v>
       </c>
       <c r="O25" t="n">
-        <v>32.09015651532904</v>
+        <v>32.09015651532907</v>
       </c>
       <c r="P25" t="n">
-        <v>27.45867264470911</v>
+        <v>27.45867264470913</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.01096164540106</v>
+        <v>19.01096164540108</v>
       </c>
       <c r="R25" t="n">
-        <v>10.20825277365689</v>
+        <v>10.2082527736569</v>
       </c>
       <c r="S25" t="n">
-        <v>3.956575124767541</v>
+        <v>3.956575124767544</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9700523258428505</v>
+        <v>0.9700523258428513</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01238364671288747</v>
+        <v>0.01238364671288748</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5061322944630716</v>
+        <v>0.5061322944630725</v>
       </c>
       <c r="H26" t="n">
-        <v>5.183427360669933</v>
+        <v>5.183427360669943</v>
       </c>
       <c r="I26" t="n">
-        <v>19.51266528228759</v>
+        <v>19.51266528228762</v>
       </c>
       <c r="J26" t="n">
-        <v>42.95734582718516</v>
+        <v>42.95734582718524</v>
       </c>
       <c r="K26" t="n">
-        <v>64.381925851807</v>
+        <v>64.38192585180711</v>
       </c>
       <c r="L26" t="n">
-        <v>79.87147205848125</v>
+        <v>79.87147205848139</v>
       </c>
       <c r="M26" t="n">
-        <v>88.87240225013889</v>
+        <v>88.87240225013905</v>
       </c>
       <c r="N26" t="n">
-        <v>90.3104506317821</v>
+        <v>90.31045063178226</v>
       </c>
       <c r="O26" t="n">
-        <v>85.27759762871493</v>
+        <v>85.27759762871507</v>
       </c>
       <c r="P26" t="n">
-        <v>72.78245660915783</v>
+        <v>72.78245660915796</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.65659381369906</v>
+        <v>54.65659381369916</v>
       </c>
       <c r="R26" t="n">
-        <v>31.79333274206595</v>
+        <v>31.79333274206601</v>
       </c>
       <c r="S26" t="n">
-        <v>11.53348966007726</v>
+        <v>11.53348966007728</v>
       </c>
       <c r="T26" t="n">
-        <v>2.215594119012097</v>
+        <v>2.215594119012101</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04049058355704572</v>
+        <v>0.0404905835570458</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2708046517025767</v>
+        <v>0.2708046517025772</v>
       </c>
       <c r="H27" t="n">
-        <v>2.615402820390675</v>
+        <v>2.61540282039068</v>
       </c>
       <c r="I27" t="n">
-        <v>9.323756648531699</v>
+        <v>9.323756648531715</v>
       </c>
       <c r="J27" t="n">
-        <v>25.58510088739125</v>
+        <v>25.5851008873913</v>
       </c>
       <c r="K27" t="n">
-        <v>43.72901255146389</v>
+        <v>43.72901255146397</v>
       </c>
       <c r="L27" t="n">
-        <v>58.79905387077219</v>
+        <v>58.7990538707723</v>
       </c>
       <c r="M27" t="n">
-        <v>68.61572249499058</v>
+        <v>68.61572249499071</v>
       </c>
       <c r="N27" t="n">
-        <v>70.43177649697849</v>
+        <v>70.43177649697861</v>
       </c>
       <c r="O27" t="n">
-        <v>64.4313155303056</v>
+        <v>64.43131553030571</v>
       </c>
       <c r="P27" t="n">
-        <v>51.71181107818765</v>
+        <v>51.71181107818774</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.56797624189382</v>
+        <v>34.56797624189389</v>
       </c>
       <c r="R27" t="n">
-        <v>16.81364319956876</v>
+        <v>16.81364319956879</v>
       </c>
       <c r="S27" t="n">
-        <v>5.030077631405313</v>
+        <v>5.030077631405323</v>
       </c>
       <c r="T27" t="n">
-        <v>1.091532784713456</v>
+        <v>1.091532784713457</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01781609550674847</v>
+        <v>0.0178160955067485</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2270335230696034</v>
+        <v>0.2270335230696038</v>
       </c>
       <c r="H28" t="n">
-        <v>2.018534414200657</v>
+        <v>2.018534414200661</v>
       </c>
       <c r="I28" t="n">
-        <v>6.82751722103862</v>
+        <v>6.827517221038632</v>
       </c>
       <c r="J28" t="n">
-        <v>16.05127008102096</v>
+        <v>16.05127008102099</v>
       </c>
       <c r="K28" t="n">
-        <v>26.37716749845028</v>
+        <v>26.37716749845033</v>
       </c>
       <c r="L28" t="n">
-        <v>33.75369305709359</v>
+        <v>33.75369305709364</v>
       </c>
       <c r="M28" t="n">
-        <v>35.58853671171973</v>
+        <v>35.5885367117198</v>
       </c>
       <c r="N28" t="n">
-        <v>34.74232085300579</v>
+        <v>34.74232085300584</v>
       </c>
       <c r="O28" t="n">
-        <v>32.09015651532904</v>
+        <v>32.0901565153291</v>
       </c>
       <c r="P28" t="n">
-        <v>27.45867264470911</v>
+        <v>27.45867264470916</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.01096164540106</v>
+        <v>19.0109616454011</v>
       </c>
       <c r="R28" t="n">
-        <v>10.20825277365689</v>
+        <v>10.20825277365691</v>
       </c>
       <c r="S28" t="n">
-        <v>3.956575124767541</v>
+        <v>3.956575124767548</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9700523258428505</v>
+        <v>0.9700523258428523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01238364671288747</v>
+        <v>0.01238364671288749</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L2" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P2" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="Q2" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N4" t="n">
-        <v>9.605247316954337</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="O5" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9.605247316954339</v>
       </c>
       <c r="P5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9.605247316954339</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="Q6" t="n">
         <v>10.00967878293136</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35106,10 +35106,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="O7" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="P7" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L8" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>11.94294668035388</v>
@@ -35264,10 +35264,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="O9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="P9" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="O10" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6831481229484</v>
+        <v>115.6831481229485</v>
       </c>
       <c r="K11" t="n">
         <v>306.9479582202744</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>86.44787516325604</v>
       </c>
       <c r="K12" t="n">
-        <v>117.0312602734696</v>
+        <v>193.5093305425711</v>
       </c>
       <c r="L12" t="n">
         <v>428.3160691941213</v>
@@ -35504,10 +35504,10 @@
         <v>460.5928819789428</v>
       </c>
       <c r="P12" t="n">
-        <v>356.8592042859626</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.75606281339978</v>
+        <v>59.75606281339979</v>
       </c>
       <c r="K13" t="n">
         <v>163.4822504152864</v>
       </c>
       <c r="L13" t="n">
-        <v>238.538464514956</v>
+        <v>238.5384645149561</v>
       </c>
       <c r="M13" t="n">
         <v>257.9353553689178</v>
@@ -35647,22 +35647,22 @@
         <v>115.6831481229485</v>
       </c>
       <c r="K14" t="n">
-        <v>306.9479582202744</v>
+        <v>306.9479582202745</v>
       </c>
       <c r="L14" t="n">
         <v>431.2708388109522</v>
       </c>
       <c r="M14" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936621</v>
       </c>
       <c r="N14" t="n">
-        <v>472.4633381951313</v>
+        <v>472.4633381951314</v>
       </c>
       <c r="O14" t="n">
         <v>393.3630364901634</v>
       </c>
       <c r="P14" t="n">
-        <v>303.2439681809287</v>
+        <v>303.2439681809288</v>
       </c>
       <c r="Q14" t="n">
         <v>150.0427086485849</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L15" t="n">
-        <v>428.3160691941213</v>
+        <v>428.3160691941214</v>
       </c>
       <c r="M15" t="n">
-        <v>558.5484028083506</v>
+        <v>206.1087527270653</v>
       </c>
       <c r="N15" t="n">
         <v>586.8617220758897</v>
@@ -35741,10 +35741,10 @@
         <v>460.5928819789428</v>
       </c>
       <c r="P15" t="n">
-        <v>356.8592042859626</v>
+        <v>356.8592042859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.0312602734694</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.75606281339978</v>
+        <v>59.75606281339979</v>
       </c>
       <c r="K16" t="n">
         <v>163.4822504152864</v>
       </c>
       <c r="L16" t="n">
-        <v>238.538464514956</v>
+        <v>238.5384645149561</v>
       </c>
       <c r="M16" t="n">
         <v>257.9353553689178</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.6831481229481</v>
+        <v>115.6831481229485</v>
       </c>
       <c r="K17" t="n">
-        <v>306.9479582202744</v>
+        <v>306.9479582202745</v>
       </c>
       <c r="L17" t="n">
         <v>431.2708388109522</v>
       </c>
       <c r="M17" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936622</v>
       </c>
       <c r="N17" t="n">
-        <v>472.4633381951313</v>
+        <v>472.4633381951311</v>
       </c>
       <c r="O17" t="n">
         <v>393.3630364901634</v>
       </c>
       <c r="P17" t="n">
-        <v>303.2439681809287</v>
+        <v>303.2439681809288</v>
       </c>
       <c r="Q17" t="n">
         <v>150.0427086485849</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86.44787516325607</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>275.5376515011495</v>
       </c>
       <c r="L18" t="n">
-        <v>428.3160691941213</v>
+        <v>428.3160691941214</v>
       </c>
       <c r="M18" t="n">
-        <v>558.5484028083506</v>
+        <v>558.5484028083507</v>
       </c>
       <c r="N18" t="n">
-        <v>586.8617220758897</v>
+        <v>147.9741968313481</v>
       </c>
       <c r="O18" t="n">
-        <v>460.5928819789428</v>
+        <v>460.5928819789429</v>
       </c>
       <c r="P18" t="n">
-        <v>356.8592042859626</v>
+        <v>356.8592042859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.0312602734694</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.32079148293857</v>
+        <v>60.3207914829386</v>
       </c>
       <c r="L19" t="n">
-        <v>135.3770055826082</v>
+        <v>135.3770055826083</v>
       </c>
       <c r="M19" t="n">
         <v>154.77389643657</v>
       </c>
       <c r="N19" t="n">
-        <v>154.3608478728041</v>
+        <v>154.3608478728042</v>
       </c>
       <c r="O19" t="n">
         <v>131.548385298854</v>
       </c>
       <c r="P19" t="n">
-        <v>91.06320166303011</v>
+        <v>91.06320166303013</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>115.6831481229485</v>
       </c>
       <c r="K20" t="n">
-        <v>306.9479582202744</v>
+        <v>306.9479582202745</v>
       </c>
       <c r="L20" t="n">
         <v>431.2708388109522</v>
       </c>
       <c r="M20" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936619</v>
       </c>
       <c r="N20" t="n">
-        <v>472.4633381951313</v>
+        <v>472.4633381951314</v>
       </c>
       <c r="O20" t="n">
         <v>393.3630364901634</v>
       </c>
       <c r="P20" t="n">
-        <v>303.2439681809287</v>
+        <v>303.2439681809288</v>
       </c>
       <c r="Q20" t="n">
         <v>150.0427086485849</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.44787516325604</v>
+        <v>86.44787516325607</v>
       </c>
       <c r="K21" t="n">
-        <v>275.5376515011494</v>
+        <v>275.5376515011495</v>
       </c>
       <c r="L21" t="n">
-        <v>428.3160691941213</v>
+        <v>428.3160691941214</v>
       </c>
       <c r="M21" t="n">
-        <v>558.5484028083506</v>
+        <v>119.6608775638092</v>
       </c>
       <c r="N21" t="n">
         <v>586.8617220758897</v>
       </c>
       <c r="O21" t="n">
-        <v>21.70535673440214</v>
+        <v>460.5928819789429</v>
       </c>
       <c r="P21" t="n">
-        <v>356.8592042859626</v>
+        <v>356.8592042859627</v>
       </c>
       <c r="Q21" t="n">
         <v>193.9332588536052</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.32079148293857</v>
+        <v>60.3207914829386</v>
       </c>
       <c r="L22" t="n">
-        <v>135.3770055826082</v>
+        <v>135.3770055826083</v>
       </c>
       <c r="M22" t="n">
         <v>154.77389643657</v>
       </c>
       <c r="N22" t="n">
-        <v>154.3608478728041</v>
+        <v>154.3608478728042</v>
       </c>
       <c r="O22" t="n">
         <v>131.548385298854</v>
       </c>
       <c r="P22" t="n">
-        <v>91.06320166303011</v>
+        <v>91.06320166303013</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>115.6831481229485</v>
       </c>
       <c r="K23" t="n">
-        <v>306.9479582202744</v>
+        <v>306.9479582202745</v>
       </c>
       <c r="L23" t="n">
         <v>431.2708388109522</v>
       </c>
       <c r="M23" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936622</v>
       </c>
       <c r="N23" t="n">
-        <v>472.4633381951313</v>
+        <v>472.4633381951314</v>
       </c>
       <c r="O23" t="n">
-        <v>393.3630364901634</v>
+        <v>393.3630364901629</v>
       </c>
       <c r="P23" t="n">
-        <v>303.2439681809287</v>
+        <v>303.2439681809288</v>
       </c>
       <c r="Q23" t="n">
         <v>150.0427086485849</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>86.44787516325607</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5376515011494</v>
+        <v>275.5376515011495</v>
       </c>
       <c r="L24" t="n">
-        <v>428.3160691941213</v>
+        <v>428.3160691941214</v>
       </c>
       <c r="M24" t="n">
-        <v>558.5484028083506</v>
+        <v>558.5484028083507</v>
       </c>
       <c r="N24" t="n">
-        <v>586.8617220758897</v>
+        <v>147.9741968313481</v>
       </c>
       <c r="O24" t="n">
-        <v>460.5928819789428</v>
+        <v>460.5928819789429</v>
       </c>
       <c r="P24" t="n">
-        <v>198.3528130582828</v>
+        <v>356.8592042859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.32079148293857</v>
+        <v>60.3207914829386</v>
       </c>
       <c r="L25" t="n">
-        <v>135.3770055826082</v>
+        <v>135.3770055826083</v>
       </c>
       <c r="M25" t="n">
         <v>154.77389643657</v>
       </c>
       <c r="N25" t="n">
-        <v>154.3608478728041</v>
+        <v>154.3608478728042</v>
       </c>
       <c r="O25" t="n">
         <v>131.548385298854</v>
       </c>
       <c r="P25" t="n">
-        <v>91.06320166303011</v>
+        <v>91.06320166303013</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>142.3647306396264</v>
+        <v>142.3647306396248</v>
       </c>
       <c r="K26" t="n">
-        <v>410.1094171526223</v>
+        <v>410.1094171526224</v>
       </c>
       <c r="L26" t="n">
-        <v>534.4322977433001</v>
+        <v>534.4322977433002</v>
       </c>
       <c r="M26" t="n">
-        <v>589.2451402260099</v>
+        <v>589.2451402260101</v>
       </c>
       <c r="N26" t="n">
-        <v>575.6247971274792</v>
+        <v>575.6247971274793</v>
       </c>
       <c r="O26" t="n">
-        <v>496.5244954225112</v>
+        <v>496.5244954225113</v>
       </c>
       <c r="P26" t="n">
-        <v>406.4054271132766</v>
+        <v>406.4054271132767</v>
       </c>
       <c r="Q26" t="n">
         <v>253.2041675809328</v>
       </c>
       <c r="R26" t="n">
-        <v>45.22288803530861</v>
+        <v>45.22288803530865</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>86.4478751632561</v>
       </c>
       <c r="K27" t="n">
-        <v>275.5376515011494</v>
+        <v>275.5376515011495</v>
       </c>
       <c r="L27" t="n">
-        <v>428.3160691941213</v>
+        <v>428.3160691941214</v>
       </c>
       <c r="M27" t="n">
-        <v>558.5484028083506</v>
+        <v>558.5484028083507</v>
       </c>
       <c r="N27" t="n">
-        <v>586.8617220758897</v>
+        <v>147.9741968313477</v>
       </c>
       <c r="O27" t="n">
-        <v>108.1532318976579</v>
+        <v>460.592881978943</v>
       </c>
       <c r="P27" t="n">
-        <v>356.8592042859626</v>
+        <v>356.8592042859627</v>
       </c>
       <c r="Q27" t="n">
         <v>193.9332588536052</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.75606281339979</v>
+        <v>59.75606281339982</v>
       </c>
       <c r="K28" t="n">
         <v>163.4822504152864</v>
@@ -36765,13 +36765,13 @@
         <v>257.522306805152</v>
       </c>
       <c r="O28" t="n">
-        <v>234.7098442312018</v>
+        <v>234.7098442312019</v>
       </c>
       <c r="P28" t="n">
-        <v>194.2246605953779</v>
+        <v>194.224660595378</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.02045264490104</v>
+        <v>84.02045264490107</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>534.4322977433001</v>
       </c>
       <c r="M29" t="n">
-        <v>512.7652638103391</v>
+        <v>512.7652638103386</v>
       </c>
       <c r="N29" t="n">
         <v>575.6247971274793</v>
@@ -36911,16 +36911,16 @@
         <v>86.44787516325607</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>275.5376515011495</v>
       </c>
       <c r="L30" t="n">
         <v>428.3160691941214</v>
       </c>
       <c r="M30" t="n">
-        <v>395.1985290649583</v>
+        <v>558.5484028083507</v>
       </c>
       <c r="N30" t="n">
-        <v>586.8617220758897</v>
+        <v>147.9741968313481</v>
       </c>
       <c r="O30" t="n">
         <v>460.5928819789429</v>
@@ -37005,7 +37005,7 @@
         <v>234.7098442312018</v>
       </c>
       <c r="P31" t="n">
-        <v>194.2246605953779</v>
+        <v>194.224660595378</v>
       </c>
       <c r="Q31" t="n">
         <v>84.02045264490106</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.3447821257174</v>
+        <v>219.3447821257175</v>
       </c>
       <c r="K32" t="n">
-        <v>321.9731804181312</v>
+        <v>410.6095922230435</v>
       </c>
       <c r="L32" t="n">
         <v>534.9324728137212</v>
       </c>
       <c r="M32" t="n">
-        <v>589.745315296431</v>
+        <v>501.1089034915183</v>
       </c>
       <c r="N32" t="n">
         <v>576.1249721979003</v>
@@ -37087,10 +37087,10 @@
         <v>406.9056021836977</v>
       </c>
       <c r="Q32" t="n">
-        <v>253.7043426513539</v>
+        <v>253.704342651354</v>
       </c>
       <c r="R32" t="n">
-        <v>45.72306310572975</v>
+        <v>45.72306310572976</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>558.5484028083507</v>
       </c>
       <c r="N33" t="n">
-        <v>428.3553308482096</v>
+        <v>234.4220719946044</v>
       </c>
       <c r="O33" t="n">
         <v>460.5928819789429</v>
@@ -37166,7 +37166,7 @@
         <v>356.8592042859627</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.25623788382093</v>
+        <v>60.25623788382094</v>
       </c>
       <c r="K34" t="n">
         <v>163.9824254857076</v>
@@ -37239,13 +37239,13 @@
         <v>258.0224818755731</v>
       </c>
       <c r="O34" t="n">
-        <v>235.2100193016229</v>
+        <v>223.0433283324394</v>
       </c>
       <c r="P34" t="n">
         <v>194.7248356657991</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.35393674613896</v>
+        <v>84.52062771532221</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>115.6831481229482</v>
+        <v>115.6831481229485</v>
       </c>
       <c r="K35" t="n">
         <v>306.9479582202745</v>
@@ -37324,7 +37324,7 @@
         <v>303.2439681809288</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.0427086485849</v>
+        <v>150.0427086485845</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>86.44787516325607</v>
       </c>
       <c r="K36" t="n">
         <v>275.5376515011495</v>
@@ -37391,7 +37391,7 @@
         <v>428.3160691941214</v>
       </c>
       <c r="M36" t="n">
-        <v>400.0420115806705</v>
+        <v>558.5484028083507</v>
       </c>
       <c r="N36" t="n">
         <v>586.8617220758897</v>
@@ -37400,7 +37400,7 @@
         <v>460.5928819789429</v>
       </c>
       <c r="P36" t="n">
-        <v>356.8592042859627</v>
+        <v>111.9049378950265</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>86.44787516325607</v>
       </c>
       <c r="K39" t="n">
         <v>275.5376515011495</v>
@@ -37628,19 +37628,19 @@
         <v>428.3160691941214</v>
       </c>
       <c r="M39" t="n">
-        <v>400.0420115806705</v>
+        <v>558.5484028083507</v>
       </c>
       <c r="N39" t="n">
         <v>586.8617220758897</v>
       </c>
       <c r="O39" t="n">
-        <v>460.5928819789429</v>
+        <v>21.70535673440145</v>
       </c>
       <c r="P39" t="n">
         <v>356.8592042859627</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>115.6831481229485</v>
       </c>
       <c r="K41" t="n">
-        <v>306.9479582202746</v>
+        <v>306.9479582202745</v>
       </c>
       <c r="L41" t="n">
         <v>431.2708388109522</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.44787516325607</v>
       </c>
       <c r="K42" t="n">
         <v>275.5376515011495</v>
@@ -37868,10 +37868,10 @@
         <v>558.5484028083507</v>
       </c>
       <c r="N42" t="n">
-        <v>234.4220719946044</v>
+        <v>586.8617220758897</v>
       </c>
       <c r="O42" t="n">
-        <v>460.5928819789429</v>
+        <v>21.70535673440145</v>
       </c>
       <c r="P42" t="n">
         <v>356.8592042859627</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.09462095177609</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>182.8208085536627</v>
+        <v>60.3207914829386</v>
       </c>
       <c r="L43" t="n">
-        <v>135.8282552472734</v>
+        <v>135.3770055826083</v>
       </c>
       <c r="M43" t="n">
-        <v>154.77389643657</v>
+        <v>277.273913507294</v>
       </c>
       <c r="N43" t="n">
-        <v>154.3608478728042</v>
+        <v>253.0477247766954</v>
       </c>
       <c r="O43" t="n">
-        <v>254.0484023695781</v>
+        <v>131.548385298854</v>
       </c>
       <c r="P43" t="n">
-        <v>213.5632187337543</v>
+        <v>213.5632187337541</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.3590107832772</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>75.87641911283602</v>
       </c>
       <c r="K45" t="n">
         <v>275.5376515011495</v>
       </c>
       <c r="L45" t="n">
-        <v>428.3160691941214</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>558.5484028083507</v>
       </c>
       <c r="N45" t="n">
-        <v>234.4220719946044</v>
+        <v>586.8617220758897</v>
       </c>
       <c r="O45" t="n">
         <v>460.5928819789429</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.09462095177612</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>79.91304743505006</v>
+        <v>182.8208085536626</v>
       </c>
       <c r="L46" t="n">
-        <v>257.8770226533325</v>
+        <v>234.0638824864992</v>
       </c>
       <c r="M46" t="n">
-        <v>154.77389643657</v>
+        <v>277.273913507294</v>
       </c>
       <c r="N46" t="n">
         <v>154.3608478728042</v>
@@ -38190,10 +38190,10 @@
         <v>131.548385298854</v>
       </c>
       <c r="P46" t="n">
-        <v>213.5632187337543</v>
+        <v>91.06320166303013</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.3590107832774</v>
+        <v>103.3590107832772</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
